--- a/2021/franco_carbazoles/dataset.xlsx
+++ b/2021/franco_carbazoles/dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eduardo Gonik\Documents\git\labo\2021\franco_carbazoles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8CF7802-C00F-4D97-A76B-17EBB3C882A7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E408BC-0EA4-48FD-9C2D-0F5BBBAACF3C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C-DFT S0" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="79">
   <si>
     <t>Cz</t>
   </si>
@@ -113,9 +113,6 @@
     <t>L(0-0)/nm</t>
   </si>
   <si>
-    <t>in kcal/mol</t>
-  </si>
-  <si>
     <t>DS/cal.K-1mol-1</t>
   </si>
   <si>
@@ -132,12 +129,6 @@
   </si>
   <si>
     <t>DE(0-0)/kcal mol-1</t>
-  </si>
-  <si>
-    <t>data in acetonitrile</t>
-  </si>
-  <si>
-    <t>Singlet Oxygen measurements</t>
   </si>
   <si>
     <t>Compound</t>
@@ -191,90 +182,25 @@
     <t>FiD corr por tau</t>
   </si>
   <si>
-    <t>kt(D)</t>
-  </si>
-  <si>
     <t>1-NitroCA (1)</t>
-  </si>
-  <si>
-    <t>48698 (a 404 nm)</t>
   </si>
   <si>
     <t>NF</t>
   </si>
   <si>
-    <t>&gt; 0.01</t>
-  </si>
-  <si>
     <t>n,p*</t>
-  </si>
-  <si>
-    <t>1 (air)</t>
-  </si>
-  <si>
-    <t>1 (O2)</t>
   </si>
   <si>
     <t>3-NitroCA (2)</t>
   </si>
   <si>
-    <t>362 
-(+ banda ancha y 
-tenue en 475 nm)</t>
-  </si>
-  <si>
-    <t>45714 (a 366 nm)</t>
-  </si>
-  <si>
-    <t>2 (air)</t>
-  </si>
-  <si>
-    <t>2 (O2)</t>
-  </si>
-  <si>
     <t>6-Cl-3-NitroCA (3)</t>
-  </si>
-  <si>
-    <t>361 
-(+ banda ancha y 
-tenue en 475 nm)</t>
   </si>
   <si>
     <t>??</t>
   </si>
   <si>
-    <t>3 (air)</t>
-  </si>
-  <si>
-    <t>3 (O2)</t>
-  </si>
-  <si>
-    <t>377 
-(+ banda ancha y 
-tenue en 475 nm)</t>
-  </si>
-  <si>
-    <t>46840 (a 377 nm)</t>
-  </si>
-  <si>
-    <t>4 (air)</t>
-  </si>
-  <si>
-    <t>4 (O2)</t>
-  </si>
-  <si>
-    <t>rotulo invertido con el compuesto 29??</t>
-  </si>
-  <si>
     <t>3,6-dinitroCA (5)</t>
-  </si>
-  <si>
-    <t>361 
-(+ banda ancha y 
-tenue en 450 nm)</t>
-  </si>
-  <si>
-    <t>47344 (a 360 nm)</t>
   </si>
   <si>
     <t>&lt; 0.001</t>
@@ -283,96 +209,16 @@
     <t>--</t>
   </si>
   <si>
-    <t>5 (air)</t>
-  </si>
-  <si>
-    <t>5 (O2)</t>
-  </si>
-  <si>
     <t>6-I-3-NitroCA (6)</t>
-  </si>
-  <si>
-    <t>362 
-(+ banda ancha y 
-tenue en 460 nm)</t>
-  </si>
-  <si>
-    <t>6 (air)</t>
-  </si>
-  <si>
-    <t>6 (O2)</t>
   </si>
   <si>
     <t>Carbazol (7)</t>
   </si>
   <si>
-    <t>7800 (a 334 nm)</t>
-  </si>
-  <si>
-    <t>43 (EtOH)</t>
-  </si>
-  <si>
     <t>p,p*</t>
   </si>
   <si>
-    <t>7 (air)</t>
-  </si>
-  <si>
-    <r>
-      <t>Valor de l fosfo de literatura 410 nm</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>- 0.17 (MeCN) segun Miranda</t>
-    </r>
-  </si>
-  <si>
-    <t>F. Bosca; S. Encinas; P F. Heelis; M. A. Miranda. Photophysicaal and Photohemical characterization of a photosensitizing drug: a combined steady state photolysis and laser flash photolysis study on Carprofen. Chem. Res. Toxicol. 1997, 10, 820-827</t>
-  </si>
-  <si>
-    <t>7 (O2)</t>
-  </si>
-  <si>
     <t>N-MetilCA (8)</t>
-  </si>
-  <si>
-    <t>10 (Tolueno)</t>
-  </si>
-  <si>
-    <t>8 (air)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">- Senal en N2!
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>- 0.33 (Tolueno) segun Ref. A. J.Phys. Chem., 98, 4230-4235, 1994.</t>
-    </r>
-  </si>
-  <si>
-    <t>8 (O2)</t>
   </si>
   <si>
     <t>N-PhenylCA (9)</t>
@@ -381,61 +227,13 @@
     <t>0.49 (DMF)</t>
   </si>
   <si>
-    <t>9 (air)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">- Senal en N2!
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>- 0.33 (EtOH) segun Bertollotti.</t>
-    </r>
-  </si>
-  <si>
-    <t>Ref. 2. C. L. Ramírez, A. R. Parise, S. G. Bertolotti, C. M. Previtali, E. M. Arbeloa. Study on the triplet states of N-phenyl carbazoles. Transient spectra and singlet oxygen generation. J.  Photochem. Photobiol. A: Chem. 2020, 397, 112503.</t>
-  </si>
-  <si>
-    <t>9 (O2)</t>
-  </si>
-  <si>
     <t>N-bencylCA (10)</t>
-  </si>
-  <si>
-    <t>7.3 (Ref. G. Helvetica Chimica Acta, 89 (2006) 1123 – 1139.)</t>
-  </si>
-  <si>
-    <t>10 (air)</t>
-  </si>
-  <si>
-    <t>Signal in N2!</t>
-  </si>
-  <si>
-    <t>10 (O2)</t>
   </si>
   <si>
     <t>N-Methyl-2-methoxyCA (11)</t>
   </si>
   <si>
-    <t>11 (air)</t>
-  </si>
-  <si>
-    <t>11 (O2)</t>
-  </si>
-  <si>
     <t>N-methyl-3-acetamidoCA (12)</t>
-  </si>
-  <si>
-    <t>12 (air)</t>
-  </si>
-  <si>
-    <t>12 (O2)</t>
   </si>
   <si>
     <t>N-acetylCA (13)</t>
@@ -444,164 +242,38 @@
     <t>Mix of n,p* and p,p*</t>
   </si>
   <si>
-    <t>13 (air)</t>
-  </si>
-  <si>
-    <t>- decay in N2 not measured
-- muestra fotodegradacion
-- Reaccion Foto Fries</t>
-  </si>
-  <si>
-    <t>13 (O2)</t>
-  </si>
-  <si>
-    <t>0.03 (+/-0.01)</t>
-  </si>
-  <si>
-    <t>- muestra fotodegradacion
-- Reaccion Foto Fries</t>
-  </si>
-  <si>
     <t>N-BenzoylCA (14)</t>
-  </si>
-  <si>
-    <t>14 (air)</t>
-  </si>
-  <si>
-    <t>14 (O2)</t>
   </si>
   <si>
     <t>3-BromomCA (23)</t>
   </si>
   <si>
-    <t>23 (air)</t>
-  </si>
-  <si>
     <t>355 / 309</t>
-  </si>
-  <si>
-    <t>0.04 (+/-0.03)</t>
-  </si>
-  <si>
-    <t>23 (O2)</t>
-  </si>
-  <si>
-    <t>0.11 (+/-0.07)</t>
   </si>
   <si>
     <t>3,6-dibromoCA (24)</t>
   </si>
   <si>
-    <t>24 (air)</t>
-  </si>
-  <si>
-    <t>24 (O2)</t>
-  </si>
-  <si>
     <t>1,6-DicloroCA (25)</t>
-  </si>
-  <si>
-    <t>25 (air)</t>
-  </si>
-  <si>
-    <t>0.35 (+/-0.02)</t>
-  </si>
-  <si>
-    <t>25 (O2)</t>
-  </si>
-  <si>
-    <t>0.32 (+/-0.01)</t>
   </si>
   <si>
     <t>3,6-DicloroCA (26)</t>
   </si>
   <si>
-    <t>26 (air)</t>
+    <t>Compound ID</t>
   </si>
   <si>
-    <t>0.19 (+/-0.03)</t>
+    <t>air</t>
   </si>
   <si>
-    <t>26 (O2)</t>
-  </si>
-  <si>
-    <t>0.21 (+/-0.03)</t>
-  </si>
-  <si>
-    <t>27 (air)</t>
-  </si>
-  <si>
-    <t>- muestra fotodegradacion</t>
-  </si>
-  <si>
-    <t>27 (O2)</t>
-  </si>
-  <si>
-    <t>28 (air)</t>
-  </si>
-  <si>
-    <t>28 (O2)</t>
-  </si>
-  <si>
-    <t>29 (air)</t>
-  </si>
-  <si>
-    <t>rotulo invertido con el compuesto 4??</t>
-  </si>
-  <si>
-    <t>29 (O2)</t>
-  </si>
-  <si>
-    <t>30 (air)</t>
-  </si>
-  <si>
-    <t>Photodegradation</t>
-  </si>
-  <si>
-    <t>30 (O2)</t>
-  </si>
-  <si>
-    <t>31 (air)</t>
-  </si>
-  <si>
-    <t>31 (O2)</t>
-  </si>
-  <si>
-    <t>32 (air)</t>
-  </si>
-  <si>
-    <t>32 (O2)</t>
-  </si>
-  <si>
-    <t>33 (air)</t>
-  </si>
-  <si>
-    <t>33 (O2)</t>
-  </si>
-  <si>
-    <t>34 (air)</t>
-  </si>
-  <si>
-    <t>Fries</t>
-  </si>
-  <si>
-    <t>34 (O2)</t>
-  </si>
-  <si>
-    <t>35 (air)</t>
-  </si>
-  <si>
-    <t>35 (O2)</t>
-  </si>
-  <si>
-    <t>Compound ID</t>
+    <t>o2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -682,6 +354,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -727,7 +407,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -750,48 +430,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -827,9 +470,6 @@
     <xf numFmtId="11" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -863,16 +503,10 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1153,10 +787,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1981,6 +1615,9 @@
       <c r="I28">
         <v>3.1179000000000001</v>
       </c>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D34" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3814,7 +3451,7 @@
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4804,10 +4441,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4827,22 +4464,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>30</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>31</v>
       </c>
-      <c r="F1" t="s">
-        <v>32</v>
-      </c>
       <c r="G1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H1" t="s">
         <v>25</v>
@@ -5632,11 +5269,6 @@
       </c>
       <c r="I28">
         <v>428.22700011527252</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -5646,10 +5278,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:AF996"/>
+  <dimension ref="A1:AF969"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="A86" sqref="A86"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5660,12 +5292,11 @@
     <col min="6" max="7" width="16" customWidth="1"/>
     <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" customWidth="1"/>
     <col min="11" max="11" width="14.42578125" customWidth="1"/>
     <col min="12" max="12" width="15.42578125" customWidth="1"/>
     <col min="13" max="13" width="13.28515625" customWidth="1"/>
     <col min="14" max="14" width="13.140625" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" customWidth="1"/>
     <col min="16" max="16" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="16.28515625" customWidth="1"/>
     <col min="18" max="18" width="18.140625" customWidth="1"/>
@@ -5676,31 +5307,61 @@
   <sheetData>
     <row r="1" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="25" t="s">
+      <c r="D1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="3"/>
+      <c r="E1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="S1" s="8"/>
+      <c r="T1" s="5"/>
       <c r="U1" s="3"/>
       <c r="V1" s="3"/>
       <c r="W1" s="3"/>
@@ -5715,63 +5376,58 @@
       <c r="AF1" s="3"/>
     </row>
     <row r="2" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
       <c r="B2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="P2" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="C2" s="9">
+        <v>402</v>
+      </c>
+      <c r="D2" s="9">
+        <v>48698</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="F2" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="I2" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="S2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>53</v>
-      </c>
+      <c r="L2" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="M2" s="9">
+        <v>450</v>
+      </c>
+      <c r="N2" s="11"/>
+      <c r="O2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="P2" s="3">
+        <v>355</v>
+      </c>
+      <c r="Q2" s="12">
+        <v>6.7500000000000001E-5</v>
+      </c>
+      <c r="R2" s="7">
+        <v>2E-3</v>
+      </c>
+      <c r="S2" s="8"/>
+      <c r="T2" s="3"/>
       <c r="U2" s="3"/>
       <c r="V2" s="3"/>
       <c r="W2" s="3"/>
@@ -5790,42 +5446,24 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="9">
+        <v>50</v>
+      </c>
+      <c r="C3" s="3">
         <v>402</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="H3" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>57</v>
-      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
       <c r="J3" s="3"/>
-      <c r="K3" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="L3" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="M3" s="9">
-        <v>450</v>
-      </c>
-      <c r="N3" s="11"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
       <c r="O3" s="3" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="P3" s="3">
         <v>355</v>
@@ -5834,11 +5472,9 @@
         <v>6.7500000000000001E-5</v>
       </c>
       <c r="R3" s="7">
-        <v>2E-3</v>
-      </c>
-      <c r="S3" s="8">
-        <v>2E-3</v>
-      </c>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="S3" s="8"/>
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
       <c r="V3" s="3"/>
@@ -5855,38 +5491,58 @@
     </row>
     <row r="4" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="C4" s="9">
+        <v>362</v>
+      </c>
+      <c r="D4" s="9">
+        <v>45714</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I4" s="9">
+        <v>0.5</v>
+      </c>
       <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
+      <c r="K4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L4" s="10">
+        <v>0.35</v>
+      </c>
+      <c r="M4" s="9">
+        <v>480</v>
+      </c>
+      <c r="N4" s="9">
+        <v>0.16</v>
+      </c>
       <c r="O4" s="3" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="P4" s="3">
         <v>355</v>
       </c>
       <c r="Q4" s="12">
-        <v>6.7500000000000001E-5</v>
+        <v>7.7000000000000001E-5</v>
       </c>
       <c r="R4" s="7">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="S4" s="8">
-        <v>2E-3</v>
-      </c>
+        <v>0.21</v>
+      </c>
+      <c r="S4" s="8"/>
       <c r="T4" s="3"/>
       <c r="U4" s="3"/>
       <c r="V4" s="3"/>
@@ -5902,8 +5558,15 @@
       <c r="AF4" s="3"/>
     </row>
     <row r="5" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="4"/>
-      <c r="C5" s="3"/>
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="3">
+        <v>362</v>
+      </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -5915,11 +5578,19 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="3"/>
+      <c r="O5" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="P5" s="3">
+        <v>355</v>
+      </c>
+      <c r="Q5" s="12">
+        <v>7.7000000000000001E-5</v>
+      </c>
+      <c r="R5" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="S5" s="8"/>
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
@@ -5934,62 +5605,54 @@
       <c r="AE5" s="3"/>
       <c r="AF5" s="3"/>
     </row>
-    <row r="6" spans="1:32" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>63</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="C6" s="9">
+        <v>361</v>
+      </c>
+      <c r="D6" s="13"/>
       <c r="E6" s="9" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="I6" s="9">
-        <v>0.5</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="H6" s="13"/>
+      <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="L6" s="10">
-        <v>0.35</v>
-      </c>
-      <c r="M6" s="9">
-        <v>480</v>
+        <v>52</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="M6" s="13" t="s">
+        <v>55</v>
       </c>
       <c r="N6" s="9">
         <v>0.16</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="P6" s="3">
         <v>355</v>
       </c>
       <c r="Q6" s="12">
-        <v>7.7000000000000001E-5</v>
+        <v>6.86E-5</v>
       </c>
       <c r="R6" s="7">
-        <v>0.21</v>
-      </c>
-      <c r="S6" s="8">
-        <v>0.21</v>
-      </c>
+        <v>0.24</v>
+      </c>
+      <c r="S6" s="8"/>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
@@ -6006,12 +5669,14 @@
     </row>
     <row r="7" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" s="3"/>
+        <v>54</v>
+      </c>
+      <c r="C7" s="3">
+        <v>361</v>
+      </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -6024,20 +5689,18 @@
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="P7" s="3">
         <v>355</v>
       </c>
       <c r="Q7" s="12">
-        <v>7.7000000000000001E-5</v>
+        <v>6.86E-5</v>
       </c>
       <c r="R7" s="7">
-        <v>0.25</v>
-      </c>
-      <c r="S7" s="8">
-        <v>0.24</v>
-      </c>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="S7" s="8"/>
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
@@ -6053,24 +5716,57 @@
       <c r="AF7" s="3"/>
     </row>
     <row r="8" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="4"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="9">
+        <v>377</v>
+      </c>
+      <c r="D8" s="9">
+        <v>46840</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0.67</v>
+      </c>
+      <c r="I8" s="9">
+        <v>0.13</v>
+      </c>
       <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
+      <c r="K8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="M8" s="10">
+        <v>485</v>
+      </c>
       <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="3"/>
+      <c r="O8" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="P8" s="3">
+        <v>355</v>
+      </c>
+      <c r="Q8" s="12">
+        <v>7.1699999999999995E-5</v>
+      </c>
+      <c r="R8" s="7">
+        <v>0.41</v>
+      </c>
+      <c r="S8" s="8"/>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
@@ -6085,60 +5781,42 @@
       <c r="AE8" s="3"/>
       <c r="AF8" s="3"/>
     </row>
-    <row r="9" spans="1:32" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>3</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="H9" s="14"/>
+        <v>54</v>
+      </c>
+      <c r="C9" s="3">
+        <v>377</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
-      <c r="K9" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="L9" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="M9" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="N9" s="9">
-        <v>0.16</v>
-      </c>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
       <c r="O9" s="3" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="P9" s="3">
         <v>355</v>
       </c>
       <c r="Q9" s="12">
-        <v>6.86E-5</v>
+        <v>7.1699999999999995E-5</v>
       </c>
       <c r="R9" s="7">
-        <v>0.24</v>
-      </c>
-      <c r="S9" s="8">
-        <v>0.21</v>
-      </c>
+        <v>0.43</v>
+      </c>
+      <c r="S9" s="8"/>
       <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
+      <c r="U9" s="14"/>
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
@@ -6153,38 +5831,58 @@
     </row>
     <row r="10" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
+        <v>56</v>
+      </c>
+      <c r="C10" s="9">
+        <v>361</v>
+      </c>
+      <c r="D10" s="9">
+        <v>47344</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="I10" s="9">
+        <v>0.39</v>
+      </c>
       <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
+      <c r="K10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="M10" s="9">
+        <v>500</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>58</v>
+      </c>
       <c r="O10" s="3" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="P10" s="3">
         <v>355</v>
       </c>
       <c r="Q10" s="12">
-        <v>6.86E-5</v>
+        <v>5.9799999999999997E-5</v>
       </c>
       <c r="R10" s="7">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="S10" s="8">
-        <v>0.25</v>
-      </c>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="S10" s="8"/>
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
@@ -6200,8 +5898,15 @@
       <c r="AF10" s="3"/>
     </row>
     <row r="11" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="4"/>
-      <c r="C11" s="3"/>
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="3">
+        <v>361</v>
+      </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -6213,16 +5918,24 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="3"/>
+      <c r="O11" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="P11" s="3">
+        <v>355</v>
+      </c>
+      <c r="Q11" s="12">
+        <v>5.9799999999999997E-5</v>
+      </c>
+      <c r="R11" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="S11" s="8"/>
       <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3"/>
-      <c r="X11" s="3"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
@@ -6232,60 +5945,52 @@
       <c r="AE11" s="3"/>
       <c r="AF11" s="3"/>
     </row>
-    <row r="12" spans="1:32" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>72</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="C12" s="9">
+        <v>362</v>
+      </c>
+      <c r="D12" s="3"/>
       <c r="E12" s="9" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0.67</v>
-      </c>
-      <c r="I12" s="9">
-        <v>0.13</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="H12" s="13"/>
+      <c r="I12" s="3"/>
       <c r="J12" s="3"/>
-      <c r="K12" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="L12" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="M12" s="10">
-        <v>485</v>
+      <c r="K12" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="L12" s="15">
+        <v>0.3</v>
+      </c>
+      <c r="M12" s="15">
+        <v>525</v>
       </c>
       <c r="N12" s="3"/>
       <c r="O12" s="3" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P12" s="3">
         <v>355</v>
       </c>
       <c r="Q12" s="12">
-        <v>7.1699999999999995E-5</v>
+        <v>6.3499999999999999E-5</v>
       </c>
       <c r="R12" s="7">
-        <v>0.41</v>
-      </c>
-      <c r="S12" s="8">
-        <v>0.39</v>
-      </c>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="S12" s="8"/>
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
@@ -6302,12 +6007,14 @@
     </row>
     <row r="13" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" s="3"/>
+        <v>59</v>
+      </c>
+      <c r="C13" s="3">
+        <v>362</v>
+      </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -6320,24 +6027,20 @@
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P13" s="3">
         <v>355</v>
       </c>
       <c r="Q13" s="12">
-        <v>7.1699999999999995E-5</v>
+        <v>6.3499999999999999E-5</v>
       </c>
       <c r="R13" s="7">
-        <v>0.43</v>
-      </c>
-      <c r="S13" s="8">
-        <v>0.4</v>
-      </c>
+        <v>0.27</v>
+      </c>
+      <c r="S13" s="8"/>
       <c r="T13" s="3"/>
-      <c r="U13" s="15" t="s">
-        <v>75</v>
-      </c>
+      <c r="U13" s="3"/>
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
@@ -6351,27 +6054,62 @@
       <c r="AF13" s="3"/>
     </row>
     <row r="14" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="4"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
+      <c r="A14">
+        <v>7</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="9">
+        <v>334</v>
+      </c>
+      <c r="D14" s="9">
+        <v>7800</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.42</v>
+      </c>
+      <c r="F14" s="9">
+        <v>355</v>
+      </c>
+      <c r="G14" s="9">
+        <v>15</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="I14" s="9">
+        <v>43</v>
+      </c>
       <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="3"/>
+      <c r="K14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0.24</v>
+      </c>
+      <c r="M14" s="10">
+        <v>406</v>
+      </c>
+      <c r="N14" s="9">
+        <v>7.73</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="P14" s="3">
+        <v>309</v>
+      </c>
+      <c r="Q14" s="12">
+        <v>7.3899999999999994E-5</v>
+      </c>
+      <c r="R14" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="S14" s="8"/>
       <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
+      <c r="U14" s="16"/>
+      <c r="V14" s="17"/>
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
@@ -6383,62 +6121,38 @@
       <c r="AE14" s="3"/>
       <c r="AF14" s="3"/>
     </row>
-    <row r="15" spans="1:32" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D15" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E15" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="I15" s="9">
-        <v>0.39</v>
-      </c>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="L15" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="M15" s="9">
-        <v>500</v>
-      </c>
-      <c r="N15" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>81</v>
-      </c>
       <c r="P15" s="3">
-        <v>355</v>
+        <v>309</v>
       </c>
       <c r="Q15" s="12">
-        <v>5.9799999999999997E-5</v>
+        <v>7.3899999999999994E-5</v>
       </c>
       <c r="R15" s="7">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="S15" s="8">
-        <v>2E-3</v>
-      </c>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="S15" s="8"/>
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
@@ -6455,43 +6169,59 @@
     </row>
     <row r="16" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C16" s="3"/>
+        <v>62</v>
+      </c>
+      <c r="C16" s="9">
+        <v>345</v>
+      </c>
       <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+      <c r="E16" s="3">
+        <v>0.47</v>
+      </c>
+      <c r="F16" s="9">
+        <v>356</v>
+      </c>
+      <c r="G16" s="9">
+        <v>14.7</v>
+      </c>
       <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
+      <c r="I16" s="9">
+        <v>10</v>
+      </c>
       <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
+      <c r="K16" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L16" s="3">
+        <v>0.24</v>
+      </c>
+      <c r="M16" s="9">
+        <v>408</v>
+      </c>
+      <c r="N16" s="9">
+        <v>7.88</v>
+      </c>
       <c r="O16" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="P16" s="3">
-        <v>355</v>
+        <v>309</v>
       </c>
       <c r="Q16" s="12">
-        <v>5.9799999999999997E-5</v>
+        <v>7.6699999999999994E-5</v>
       </c>
       <c r="R16" s="7">
-        <v>0.01</v>
-      </c>
-      <c r="S16" s="8">
-        <v>0.01</v>
-      </c>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="S16" s="18"/>
       <c r="T16" s="3"/>
-      <c r="U16" s="11"/>
-      <c r="V16" s="11"/>
-      <c r="W16" s="11"/>
-      <c r="X16" s="11"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
@@ -6502,7 +6232,12 @@
       <c r="AF16" s="3"/>
     </row>
     <row r="17" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="4"/>
+      <c r="A17">
+        <v>8</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -6515,11 +6250,19 @@
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="3"/>
+      <c r="O17" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="P17" s="3">
+        <v>309</v>
+      </c>
+      <c r="Q17" s="12">
+        <v>7.6699999999999994E-5</v>
+      </c>
+      <c r="R17" s="7">
+        <v>0.16</v>
+      </c>
+      <c r="S17" s="18"/>
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
@@ -6534,57 +6277,59 @@
       <c r="AE17" s="3"/>
       <c r="AF17" s="3"/>
     </row>
-    <row r="18" spans="1:32" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>84</v>
+        <v>63</v>
+      </c>
+      <c r="C18" s="9">
+        <v>339</v>
       </c>
       <c r="D18" s="3"/>
-      <c r="E18" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="H18" s="14"/>
+      <c r="E18" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="F18" s="9">
+        <v>358</v>
+      </c>
+      <c r="G18" s="9">
+        <v>11.4</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>64</v>
+      </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
-      <c r="K18" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="L18" s="16">
-        <v>0.3</v>
-      </c>
-      <c r="M18" s="16">
-        <v>525</v>
-      </c>
-      <c r="N18" s="3"/>
+      <c r="K18" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="M18" s="9">
+        <v>407</v>
+      </c>
+      <c r="N18" s="9">
+        <v>7.57</v>
+      </c>
       <c r="O18" s="3" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="P18" s="3">
-        <v>355</v>
+        <v>309</v>
       </c>
       <c r="Q18" s="12">
-        <v>6.3499999999999999E-5</v>
+        <v>8.0500000000000005E-5</v>
       </c>
       <c r="R18" s="7">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="S18" s="8">
-        <v>0.22</v>
-      </c>
+        <v>0.23</v>
+      </c>
+      <c r="S18" s="18"/>
       <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
+      <c r="U18" s="19"/>
+      <c r="V18" s="17"/>
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
@@ -6598,10 +6343,10 @@
     </row>
     <row r="19" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -6616,20 +6361,18 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="P19" s="3">
-        <v>355</v>
+        <v>309</v>
       </c>
       <c r="Q19" s="12">
-        <v>6.3499999999999999E-5</v>
+        <v>8.0500000000000005E-5</v>
       </c>
       <c r="R19" s="7">
-        <v>0.27</v>
-      </c>
-      <c r="S19" s="8">
-        <v>0.22</v>
-      </c>
+        <v>0.23</v>
+      </c>
+      <c r="S19" s="18"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
@@ -6645,24 +6388,51 @@
       <c r="AF19" s="3"/>
     </row>
     <row r="20" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="4"/>
-      <c r="C20" s="3"/>
+      <c r="A20">
+        <v>10</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="9">
+        <v>342</v>
+      </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
+      <c r="F20" s="9">
+        <v>355</v>
+      </c>
+      <c r="G20" s="9">
+        <v>12.3</v>
+      </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="13"/>
-      <c r="S20" s="3"/>
+      <c r="K20" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L20" s="9">
+        <v>0.47</v>
+      </c>
+      <c r="M20" s="9">
+        <v>410</v>
+      </c>
+      <c r="N20" s="2">
+        <v>7.3</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="P20" s="3">
+        <v>309</v>
+      </c>
+      <c r="Q20" s="12">
+        <v>7.8499999999999997E-5</v>
+      </c>
+      <c r="R20" s="7">
+        <v>0.19</v>
+      </c>
+      <c r="S20" s="18"/>
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
@@ -6677,69 +6447,41 @@
       <c r="AE20" s="3"/>
       <c r="AF20" s="3"/>
     </row>
-    <row r="21" spans="1:32" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C21" s="9">
-        <v>334</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="E21" s="3">
-        <v>0.42</v>
-      </c>
-      <c r="F21" s="9">
-        <v>355</v>
-      </c>
-      <c r="G21" s="9">
-        <v>15</v>
-      </c>
-      <c r="H21" s="3">
-        <v>0.38</v>
-      </c>
-      <c r="I21" s="9" t="s">
-        <v>89</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
       <c r="J21" s="3"/>
-      <c r="K21" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="L21" s="3">
-        <v>0.24</v>
-      </c>
-      <c r="M21" s="10">
-        <v>406</v>
-      </c>
-      <c r="N21" s="9">
-        <v>7.73</v>
-      </c>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
       <c r="O21" s="3" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="P21" s="3">
         <v>309</v>
       </c>
       <c r="Q21" s="12">
-        <v>7.3899999999999994E-5</v>
+        <v>7.8499999999999997E-5</v>
       </c>
       <c r="R21" s="7">
         <v>0.15</v>
       </c>
-      <c r="S21" s="8">
-        <v>0.14000000000000001</v>
-      </c>
+      <c r="S21" s="18"/>
       <c r="T21" s="3"/>
-      <c r="U21" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="V21" s="18" t="s">
-        <v>93</v>
-      </c>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
       <c r="W21" s="3"/>
       <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
@@ -6751,40 +6493,54 @@
       <c r="AE21" s="3"/>
       <c r="AF21" s="3"/>
     </row>
-    <row r="22" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:32" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C22" s="3"/>
+        <v>66</v>
+      </c>
+      <c r="C22" s="9">
+        <v>333</v>
+      </c>
       <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
+      <c r="E22" s="3">
+        <v>0.34</v>
+      </c>
+      <c r="F22" s="9">
+        <v>350</v>
+      </c>
+      <c r="G22" s="9">
+        <v>14.3</v>
+      </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
+      <c r="K22" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0.23</v>
+      </c>
+      <c r="M22" s="9">
+        <v>412</v>
+      </c>
+      <c r="N22" s="9">
+        <v>4.32</v>
+      </c>
       <c r="O22" s="3" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="P22" s="3">
         <v>309</v>
       </c>
       <c r="Q22" s="12">
-        <v>7.3899999999999994E-5</v>
+        <v>7.7399999999999998E-5</v>
       </c>
       <c r="R22" s="7">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="S22" s="8">
-        <v>0.13</v>
-      </c>
+        <v>0.12</v>
+      </c>
+      <c r="S22" s="18"/>
       <c r="T22" s="3"/>
       <c r="U22" s="3"/>
       <c r="V22" s="3"/>
@@ -6799,8 +6555,13 @@
       <c r="AE22" s="3"/>
       <c r="AF22" s="3"/>
     </row>
-    <row r="23" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="4"/>
+    <row r="23" spans="1:32" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>11</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -6813,11 +6574,19 @@
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="13"/>
-      <c r="S23" s="3"/>
+      <c r="O23" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="P23" s="3">
+        <v>309</v>
+      </c>
+      <c r="Q23" s="12">
+        <v>7.7399999999999998E-5</v>
+      </c>
+      <c r="R23" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="S23" s="18"/>
       <c r="T23" s="3"/>
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
@@ -6832,62 +6601,40 @@
       <c r="AE23" s="3"/>
       <c r="AF23" s="3"/>
     </row>
-    <row r="24" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:32" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="C24" s="9">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="D24" s="3"/>
-      <c r="E24" s="3">
-        <v>0.47</v>
-      </c>
-      <c r="F24" s="9">
-        <v>356</v>
-      </c>
-      <c r="G24" s="9">
-        <v>14.7</v>
-      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="3"/>
       <c r="H24" s="3"/>
-      <c r="I24" s="9" t="s">
-        <v>96</v>
-      </c>
+      <c r="I24" s="3"/>
       <c r="J24" s="3"/>
-      <c r="K24" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="L24" s="3">
-        <v>0.24</v>
-      </c>
-      <c r="M24" s="9">
-        <v>408</v>
-      </c>
-      <c r="N24" s="9">
-        <v>7.88</v>
-      </c>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
       <c r="O24" s="3" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="P24" s="3">
         <v>309</v>
       </c>
       <c r="Q24" s="12">
-        <v>7.6699999999999994E-5</v>
-      </c>
-      <c r="R24" s="7">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="S24" s="19">
-        <v>0.13</v>
-      </c>
+        <v>7.9599999999999997E-5</v>
+      </c>
+      <c r="R24" s="20"/>
+      <c r="S24" s="21"/>
       <c r="T24" s="3"/>
-      <c r="U24" s="15" t="s">
-        <v>98</v>
-      </c>
+      <c r="U24" s="3"/>
       <c r="V24" s="3"/>
       <c r="W24" s="3"/>
       <c r="X24" s="3"/>
@@ -6900,12 +6647,12 @@
       <c r="AE24" s="3"/>
       <c r="AF24" s="3"/>
     </row>
-    <row r="25" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:32" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -6920,20 +6667,16 @@
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="P25" s="3">
         <v>309</v>
       </c>
       <c r="Q25" s="12">
-        <v>7.6699999999999994E-5</v>
-      </c>
-      <c r="R25" s="7">
-        <v>0.16</v>
-      </c>
-      <c r="S25" s="19">
-        <v>0.15</v>
-      </c>
+        <v>7.9599999999999997E-5</v>
+      </c>
+      <c r="R25" s="20"/>
+      <c r="S25" s="21"/>
       <c r="T25" s="3"/>
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>
@@ -6948,25 +6691,54 @@
       <c r="AE25" s="3"/>
       <c r="AF25" s="3"/>
     </row>
-    <row r="26" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="4"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
+    <row r="26" spans="1:32" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>13</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="9">
+        <v>314</v>
+      </c>
+      <c r="D26" s="3">
+        <v>18197</v>
+      </c>
+      <c r="E26" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G26" s="9">
+        <v>0.38</v>
+      </c>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="13"/>
-      <c r="S26" s="3"/>
+      <c r="K26" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="L26" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="M26" s="9">
+        <v>414</v>
+      </c>
+      <c r="N26" s="9">
+        <v>6.93</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="P26" s="3">
+        <v>309</v>
+      </c>
+      <c r="Q26" s="12">
+        <v>8.1199999999999995E-5</v>
+      </c>
+      <c r="R26" s="22"/>
+      <c r="S26" s="22"/>
       <c r="T26" s="3"/>
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
@@ -6981,65 +6753,39 @@
       <c r="AE26" s="3"/>
       <c r="AF26" s="3"/>
     </row>
-    <row r="27" spans="1:32" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C27" s="9">
-        <v>339</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="C27" s="3"/>
       <c r="D27" s="3"/>
-      <c r="E27" s="3">
-        <v>0.31</v>
-      </c>
-      <c r="F27" s="9">
-        <v>358</v>
-      </c>
-      <c r="G27" s="9">
-        <v>11.4</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>101</v>
-      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
-      <c r="K27" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="L27" s="3">
-        <v>0.35</v>
-      </c>
-      <c r="M27" s="9">
-        <v>407</v>
-      </c>
-      <c r="N27" s="9">
-        <v>7.57</v>
-      </c>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
       <c r="O27" s="3" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="P27" s="3">
         <v>309</v>
       </c>
       <c r="Q27" s="12">
-        <v>8.0500000000000005E-5</v>
-      </c>
-      <c r="R27" s="7">
-        <v>0.23</v>
-      </c>
-      <c r="S27" s="19">
-        <v>0.22</v>
-      </c>
+        <v>8.1199999999999995E-5</v>
+      </c>
+      <c r="R27" s="22"/>
+      <c r="S27" s="22"/>
       <c r="T27" s="3"/>
-      <c r="U27" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="V27" s="18" t="s">
-        <v>104</v>
-      </c>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
       <c r="W27" s="3"/>
       <c r="X27" s="3"/>
       <c r="Y27" s="3"/>
@@ -7051,44 +6797,56 @@
       <c r="AE27" s="3"/>
       <c r="AF27" s="3"/>
     </row>
-    <row r="28" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:32" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C28" s="3"/>
+        <v>70</v>
+      </c>
+      <c r="C28" s="9">
+        <v>314</v>
+      </c>
       <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
+      <c r="E28" s="3">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G28" s="9">
+        <v>0.25</v>
+      </c>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
+      <c r="K28" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="L28" s="3">
+        <v>0.99</v>
+      </c>
+      <c r="M28" s="9">
+        <v>410.5</v>
+      </c>
+      <c r="N28" s="9">
+        <v>5.5</v>
+      </c>
       <c r="O28" s="3" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="P28" s="3">
         <v>309</v>
       </c>
       <c r="Q28" s="12">
-        <v>8.0500000000000005E-5</v>
-      </c>
-      <c r="R28" s="7">
-        <v>0.23</v>
-      </c>
-      <c r="S28" s="19">
-        <v>0.22</v>
-      </c>
+        <v>7.6600000000000005E-5</v>
+      </c>
+      <c r="R28" s="22"/>
+      <c r="S28" s="22"/>
       <c r="T28" s="3"/>
       <c r="U28" s="3"/>
-      <c r="V28" s="3"/>
-      <c r="W28" s="3"/>
+      <c r="V28" s="11"/>
+      <c r="W28" s="11"/>
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
       <c r="Z28" s="3"/>
@@ -7100,7 +6858,12 @@
       <c r="AF28" s="3"/>
     </row>
     <row r="29" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="4"/>
+      <c r="A29">
+        <v>14</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>70</v>
+      </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -7113,11 +6876,17 @@
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="13"/>
-      <c r="S29" s="3"/>
+      <c r="O29" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="P29" s="3">
+        <v>309</v>
+      </c>
+      <c r="Q29" s="12">
+        <v>7.6600000000000005E-5</v>
+      </c>
+      <c r="R29" s="22"/>
+      <c r="S29" s="22"/>
       <c r="T29" s="3"/>
       <c r="U29" s="3"/>
       <c r="V29" s="3"/>
@@ -7132,58 +6901,56 @@
       <c r="AE29" s="3"/>
       <c r="AF29" s="3"/>
     </row>
-    <row r="30" spans="1:32" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="C30" s="9">
         <v>342</v>
       </c>
       <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="9">
-        <v>355</v>
+      <c r="E30" s="3">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>55</v>
       </c>
       <c r="G30" s="9">
-        <v>12.3</v>
+        <v>1.2</v>
       </c>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="L30" s="9">
-        <v>0.47</v>
+        <v>61</v>
+      </c>
+      <c r="L30" s="3">
+        <v>0.54</v>
       </c>
       <c r="M30" s="9">
-        <v>410</v>
-      </c>
-      <c r="N30" s="2" t="s">
-        <v>107</v>
+        <v>412</v>
+      </c>
+      <c r="N30" s="9">
+        <v>0.34</v>
       </c>
       <c r="O30" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="P30" s="3">
-        <v>309</v>
+        <v>78</v>
+      </c>
+      <c r="P30" s="9" t="s">
+        <v>72</v>
       </c>
       <c r="Q30" s="12">
-        <v>7.8499999999999997E-5</v>
+        <v>5.1700000000000003E-5</v>
       </c>
       <c r="R30" s="7">
-        <v>0.19</v>
-      </c>
-      <c r="S30" s="19">
-        <v>0.18</v>
-      </c>
+        <v>0.06</v>
+      </c>
+      <c r="S30" s="8"/>
       <c r="T30" s="3"/>
-      <c r="U30" s="3" t="s">
-        <v>109</v>
-      </c>
+      <c r="U30" s="3"/>
       <c r="V30" s="3"/>
       <c r="W30" s="3"/>
       <c r="X30" s="3"/>
@@ -7198,10 +6965,10 @@
     </row>
     <row r="31" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -7216,20 +6983,18 @@
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
       <c r="O31" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="P31" s="3">
-        <v>309</v>
+        <v>77</v>
+      </c>
+      <c r="P31" s="9" t="s">
+        <v>72</v>
       </c>
       <c r="Q31" s="12">
-        <v>7.8499999999999997E-5</v>
+        <v>5.1700000000000003E-5</v>
       </c>
       <c r="R31" s="7">
         <v>0.15</v>
       </c>
-      <c r="S31" s="19">
-        <v>0.14000000000000001</v>
-      </c>
+      <c r="S31" s="8"/>
       <c r="T31" s="3"/>
       <c r="U31" s="3"/>
       <c r="V31" s="3"/>
@@ -7245,24 +7010,53 @@
       <c r="AF31" s="3"/>
     </row>
     <row r="32" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="4"/>
-      <c r="C32" s="3"/>
+      <c r="A32">
+        <v>24</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" s="9">
+        <v>350</v>
+      </c>
       <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
+      <c r="E32" s="3">
+        <v>2E-3</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G32" s="9">
+        <v>0.47</v>
+      </c>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="13"/>
-      <c r="S32" s="3"/>
+      <c r="K32" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="M32" s="9">
+        <v>412</v>
+      </c>
+      <c r="N32" s="9">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="P32" s="3">
+        <v>355</v>
+      </c>
+      <c r="Q32" s="12">
+        <v>5.4500000000000003E-5</v>
+      </c>
+      <c r="R32" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="S32" s="8"/>
       <c r="T32" s="3"/>
       <c r="U32" s="3"/>
       <c r="V32" s="3"/>
@@ -7277,60 +7071,40 @@
       <c r="AE32" s="3"/>
       <c r="AF32" s="3"/>
     </row>
-    <row r="33" spans="1:32" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C33" s="9">
-        <v>333</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="C33" s="3"/>
       <c r="D33" s="3"/>
-      <c r="E33" s="3">
-        <v>0.34</v>
-      </c>
-      <c r="F33" s="9">
-        <v>350</v>
-      </c>
-      <c r="G33" s="9">
-        <v>14.3</v>
-      </c>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
-      <c r="K33" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="L33" s="3">
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="P33" s="3">
+        <v>355</v>
+      </c>
+      <c r="Q33" s="12">
+        <v>5.4500000000000003E-5</v>
+      </c>
+      <c r="R33" s="7">
         <v>0.23</v>
       </c>
-      <c r="M33" s="9">
-        <v>412</v>
-      </c>
-      <c r="N33" s="9">
-        <v>4.32</v>
-      </c>
-      <c r="O33" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="P33" s="3">
-        <v>309</v>
-      </c>
-      <c r="Q33" s="12">
-        <v>7.7399999999999998E-5</v>
-      </c>
-      <c r="R33" s="7">
-        <v>0.12</v>
-      </c>
-      <c r="S33" s="19">
-        <v>0.11</v>
-      </c>
+      <c r="S33" s="8"/>
       <c r="T33" s="3"/>
-      <c r="U33" s="3" t="s">
-        <v>109</v>
-      </c>
+      <c r="U33" s="3"/>
       <c r="V33" s="3"/>
       <c r="W33" s="3"/>
       <c r="X33" s="3"/>
@@ -7343,40 +7117,54 @@
       <c r="AE33" s="3"/>
       <c r="AF33" s="3"/>
     </row>
-    <row r="34" spans="1:32" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C34" s="3"/>
+        <v>74</v>
+      </c>
+      <c r="C34" s="9">
+        <v>342</v>
+      </c>
       <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
+      <c r="E34" s="3">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="F34" s="9">
+        <v>351</v>
+      </c>
+      <c r="G34" s="9">
+        <v>1.5</v>
+      </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
+      <c r="K34" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L34" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="M34" s="9">
+        <v>414</v>
+      </c>
+      <c r="N34" s="9">
+        <v>0.49</v>
+      </c>
       <c r="O34" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="P34" s="3">
-        <v>309</v>
+        <v>77</v>
+      </c>
+      <c r="P34" s="9" t="s">
+        <v>72</v>
       </c>
       <c r="Q34" s="12">
-        <v>7.7399999999999998E-5</v>
+        <v>4.5099999999999998E-5</v>
       </c>
       <c r="R34" s="7">
-        <v>0.12</v>
-      </c>
-      <c r="S34" s="19">
-        <v>0.12</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="S34" s="8"/>
       <c r="T34" s="3"/>
       <c r="U34" s="3"/>
       <c r="V34" s="3"/>
@@ -7392,7 +7180,12 @@
       <c r="AF34" s="3"/>
     </row>
     <row r="35" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="4"/>
+      <c r="A35">
+        <v>25</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>74</v>
+      </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
@@ -7405,11 +7198,19 @@
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
-      <c r="Q35" s="3"/>
-      <c r="R35" s="13"/>
-      <c r="S35" s="3"/>
+      <c r="O35" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="P35" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q35" s="12">
+        <v>4.5099999999999998E-5</v>
+      </c>
+      <c r="R35" s="7">
+        <v>0.45</v>
+      </c>
+      <c r="S35" s="8"/>
       <c r="T35" s="3"/>
       <c r="U35" s="3"/>
       <c r="V35" s="3"/>
@@ -7424,46 +7225,58 @@
       <c r="AE35" s="3"/>
       <c r="AF35" s="3"/>
     </row>
-    <row r="36" spans="1:32" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="C36" s="9">
-        <v>360</v>
-      </c>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
+        <v>350</v>
+      </c>
+      <c r="D36" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E36" s="3">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="F36" s="9">
+        <v>361</v>
+      </c>
+      <c r="G36" s="9">
+        <v>0.98</v>
+      </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
+      <c r="K36" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L36" s="3">
+        <v>0.71</v>
+      </c>
+      <c r="M36" s="9">
+        <v>414</v>
+      </c>
+      <c r="N36" s="9">
+        <v>0.28000000000000003</v>
+      </c>
       <c r="O36" s="3" t="s">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="P36" s="3">
-        <v>309</v>
+        <v>355</v>
       </c>
       <c r="Q36" s="12">
-        <v>7.9599999999999997E-5</v>
-      </c>
-      <c r="R36" s="21">
-        <v>0.2</v>
-      </c>
-      <c r="S36" s="22" t="s">
-        <v>109</v>
-      </c>
+        <v>5.1799999999999999E-5</v>
+      </c>
+      <c r="R36" s="23">
+        <v>0.34</v>
+      </c>
+      <c r="S36" s="8"/>
       <c r="T36" s="3"/>
-      <c r="U36" s="3" t="s">
-        <v>109</v>
-      </c>
+      <c r="U36" s="3"/>
       <c r="V36" s="3"/>
       <c r="W36" s="3"/>
       <c r="X36" s="3"/>
@@ -7476,12 +7289,12 @@
       <c r="AE36" s="3"/>
       <c r="AF36" s="3"/>
     </row>
-    <row r="37" spans="1:32" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -7496,20 +7309,18 @@
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
       <c r="O37" s="3" t="s">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="P37" s="3">
-        <v>309</v>
+        <v>355</v>
       </c>
       <c r="Q37" s="12">
-        <v>7.9599999999999997E-5</v>
-      </c>
-      <c r="R37" s="21">
-        <v>0.17</v>
-      </c>
-      <c r="S37" s="22" t="s">
-        <v>109</v>
-      </c>
+        <v>5.1799999999999999E-5</v>
+      </c>
+      <c r="R37" s="7">
+        <v>0.37</v>
+      </c>
+      <c r="S37" s="8"/>
       <c r="T37" s="3"/>
       <c r="U37" s="3"/>
       <c r="V37" s="3"/>
@@ -7525,8 +7336,15 @@
       <c r="AF37" s="3"/>
     </row>
     <row r="38" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="4"/>
-      <c r="C38" s="3"/>
+      <c r="A38">
+        <v>27</v>
+      </c>
+      <c r="B38" s="4">
+        <v>-27</v>
+      </c>
+      <c r="C38" s="9">
+        <v>343</v>
+      </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -7538,11 +7356,19 @@
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
-      <c r="P38" s="3"/>
-      <c r="Q38" s="3"/>
-      <c r="R38" s="13"/>
-      <c r="S38" s="11"/>
+      <c r="O38" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="P38" s="3">
+        <v>355</v>
+      </c>
+      <c r="Q38" s="12">
+        <v>3.6100000000000003E-5</v>
+      </c>
+      <c r="R38" s="23">
+        <v>0.41</v>
+      </c>
+      <c r="S38" s="8"/>
       <c r="T38" s="3"/>
       <c r="U38" s="3"/>
       <c r="V38" s="3"/>
@@ -7557,62 +7383,40 @@
       <c r="AE38" s="3"/>
       <c r="AF38" s="3"/>
     </row>
-    <row r="39" spans="1:32" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>13</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C39" s="9">
-        <v>314</v>
-      </c>
-      <c r="D39" s="3">
-        <v>18197</v>
-      </c>
-      <c r="E39" s="3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F39" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="G39" s="9">
-        <v>0.38</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="B39" s="4">
+        <v>-27</v>
+      </c>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
-      <c r="K39" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="L39" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="M39" s="9">
-        <v>414</v>
-      </c>
-      <c r="N39" s="9">
-        <v>6.93</v>
-      </c>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
       <c r="O39" s="3" t="s">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="P39" s="3">
-        <v>309</v>
+        <v>355</v>
       </c>
       <c r="Q39" s="12">
-        <v>8.1199999999999995E-5</v>
-      </c>
-      <c r="R39" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="S39" s="23">
-        <v>6.0000000000000001E-3</v>
-      </c>
+        <v>3.6100000000000003E-5</v>
+      </c>
+      <c r="R39" s="7">
+        <v>0.32</v>
+      </c>
+      <c r="S39" s="8"/>
       <c r="T39" s="3"/>
-      <c r="U39" s="3" t="s">
-        <v>120</v>
-      </c>
+      <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
@@ -7625,14 +7429,16 @@
       <c r="AE39" s="3"/>
       <c r="AF39" s="3"/>
     </row>
-    <row r="40" spans="1:32" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>13</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C40" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="B40" s="4">
+        <v>-28</v>
+      </c>
+      <c r="C40" s="9">
+        <v>351</v>
+      </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -7645,24 +7451,20 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3" t="s">
-        <v>121</v>
+        <v>77</v>
       </c>
       <c r="P40" s="3">
-        <v>309</v>
+        <v>355</v>
       </c>
       <c r="Q40" s="12">
-        <v>8.1199999999999995E-5</v>
-      </c>
-      <c r="R40" s="23">
-        <v>0.02</v>
-      </c>
-      <c r="S40" s="23" t="s">
-        <v>122</v>
-      </c>
+        <v>4.4799999999999998E-5</v>
+      </c>
+      <c r="R40" s="7">
+        <v>0.13</v>
+      </c>
+      <c r="S40" s="8"/>
       <c r="T40" s="3"/>
-      <c r="U40" s="3" t="s">
-        <v>123</v>
-      </c>
+      <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
@@ -7676,7 +7478,12 @@
       <c r="AF40" s="3"/>
     </row>
     <row r="41" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="4"/>
+      <c r="A41">
+        <v>28</v>
+      </c>
+      <c r="B41" s="4">
+        <v>-28</v>
+      </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -7689,11 +7496,19 @@
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
-      <c r="O41" s="3"/>
-      <c r="P41" s="3"/>
-      <c r="Q41" s="3"/>
-      <c r="R41" s="7"/>
-      <c r="S41" s="3"/>
+      <c r="O41" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="P41" s="3">
+        <v>355</v>
+      </c>
+      <c r="Q41" s="12">
+        <v>4.4799999999999998E-5</v>
+      </c>
+      <c r="R41" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="S41" s="8"/>
       <c r="T41" s="3"/>
       <c r="U41" s="3"/>
       <c r="V41" s="3"/>
@@ -7708,62 +7523,44 @@
       <c r="AE41" s="3"/>
       <c r="AF41" s="3"/>
     </row>
-    <row r="42" spans="1:32" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>14</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>124</v>
+        <v>29</v>
+      </c>
+      <c r="B42" s="4">
+        <v>-29</v>
       </c>
       <c r="C42" s="9">
-        <v>314</v>
+        <v>362</v>
       </c>
       <c r="D42" s="3"/>
-      <c r="E42" s="3">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="F42" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="G42" s="9">
-        <v>0.25</v>
-      </c>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
-      <c r="K42" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="L42" s="3">
-        <v>0.99</v>
-      </c>
-      <c r="M42" s="9">
-        <v>410.5</v>
-      </c>
-      <c r="N42" s="9">
-        <v>5.5</v>
-      </c>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
       <c r="O42" s="3" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="P42" s="3">
-        <v>309</v>
+        <v>355</v>
       </c>
       <c r="Q42" s="12">
-        <v>7.6600000000000005E-5</v>
-      </c>
-      <c r="R42" s="23">
-        <v>0.12</v>
-      </c>
-      <c r="S42" s="23">
-        <v>0.12</v>
-      </c>
+        <v>7.6000000000000004E-5</v>
+      </c>
+      <c r="R42" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="S42" s="8"/>
       <c r="T42" s="3"/>
-      <c r="U42" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="V42" s="11"/>
-      <c r="W42" s="11"/>
+      <c r="U42" s="14"/>
+      <c r="V42" s="3"/>
+      <c r="W42" s="3"/>
       <c r="X42" s="3"/>
       <c r="Y42" s="3"/>
       <c r="Z42" s="3"/>
@@ -7774,12 +7571,12 @@
       <c r="AE42" s="3"/>
       <c r="AF42" s="3"/>
     </row>
-    <row r="43" spans="1:32" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>14</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>124</v>
+        <v>29</v>
+      </c>
+      <c r="B43" s="4">
+        <v>-29</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -7794,28 +7591,24 @@
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
       <c r="O43" s="3" t="s">
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="P43" s="3">
-        <v>309</v>
+        <v>355</v>
       </c>
       <c r="Q43" s="12">
-        <v>7.6600000000000005E-5</v>
-      </c>
-      <c r="R43" s="23">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="S43" s="23">
-        <v>0.13</v>
-      </c>
+        <v>7.6000000000000004E-5</v>
+      </c>
+      <c r="R43" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="S43" s="8"/>
       <c r="T43" s="3"/>
-      <c r="U43" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="V43" s="3"/>
-      <c r="W43" s="3"/>
-      <c r="X43" s="3"/>
-      <c r="Y43" s="3"/>
+      <c r="U43" s="11"/>
+      <c r="V43" s="11"/>
+      <c r="W43" s="11"/>
+      <c r="X43" s="11"/>
+      <c r="Y43" s="11"/>
       <c r="Z43" s="3"/>
       <c r="AA43" s="3"/>
       <c r="AB43" s="3"/>
@@ -7825,8 +7618,15 @@
       <c r="AF43" s="3"/>
     </row>
     <row r="44" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="4"/>
-      <c r="C44" s="3"/>
+      <c r="A44">
+        <v>30</v>
+      </c>
+      <c r="B44" s="4">
+        <v>-30</v>
+      </c>
+      <c r="C44" s="9">
+        <v>357</v>
+      </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -7838,11 +7638,19 @@
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
       <c r="N44" s="3"/>
-      <c r="O44" s="3"/>
-      <c r="P44" s="3"/>
-      <c r="Q44" s="3"/>
-      <c r="R44" s="13"/>
-      <c r="S44" s="3"/>
+      <c r="O44" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="P44" s="3">
+        <v>355</v>
+      </c>
+      <c r="Q44" s="12">
+        <v>4.4299999999999999E-5</v>
+      </c>
+      <c r="R44" s="7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="S44" s="8"/>
       <c r="T44" s="3"/>
       <c r="U44" s="3"/>
       <c r="V44" s="3"/>
@@ -7857,56 +7665,38 @@
       <c r="AE44" s="3"/>
       <c r="AF44" s="3"/>
     </row>
-    <row r="45" spans="1:32" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>23</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C45" s="9">
-        <v>342</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="B45" s="4">
+        <v>-30</v>
+      </c>
+      <c r="C45" s="3"/>
       <c r="D45" s="3"/>
-      <c r="E45" s="3">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="F45" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="G45" s="9">
-        <v>1.2</v>
-      </c>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
-      <c r="K45" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="L45" s="3">
-        <v>0.54</v>
-      </c>
-      <c r="M45" s="9">
-        <v>412</v>
-      </c>
-      <c r="N45" s="9">
-        <v>0.34</v>
-      </c>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
       <c r="O45" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="P45" s="9" t="s">
-        <v>129</v>
+        <v>78</v>
+      </c>
+      <c r="P45" s="3">
+        <v>355</v>
       </c>
       <c r="Q45" s="12">
-        <v>5.1700000000000003E-5</v>
+        <v>4.4299999999999999E-5</v>
       </c>
       <c r="R45" s="7">
-        <v>0.06</v>
-      </c>
-      <c r="S45" s="8" t="s">
-        <v>130</v>
-      </c>
+        <v>0.11</v>
+      </c>
+      <c r="S45" s="8"/>
       <c r="T45" s="3"/>
       <c r="U45" s="3"/>
       <c r="V45" s="3"/>
@@ -7921,14 +7711,16 @@
       <c r="AE45" s="3"/>
       <c r="AF45" s="3"/>
     </row>
-    <row r="46" spans="1:32" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>23</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C46" s="3"/>
+        <v>31</v>
+      </c>
+      <c r="B46" s="4">
+        <v>-31</v>
+      </c>
+      <c r="C46" s="9">
+        <v>360</v>
+      </c>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -7941,20 +7733,18 @@
       <c r="M46" s="3"/>
       <c r="N46" s="3"/>
       <c r="O46" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="P46" s="9" t="s">
-        <v>129</v>
+        <v>77</v>
+      </c>
+      <c r="P46" s="3">
+        <v>355</v>
       </c>
       <c r="Q46" s="12">
-        <v>5.1700000000000003E-5</v>
+        <v>4.5000000000000003E-5</v>
       </c>
       <c r="R46" s="7">
-        <v>0.15</v>
-      </c>
-      <c r="S46" s="8" t="s">
-        <v>132</v>
-      </c>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="S46" s="8"/>
       <c r="T46" s="3"/>
       <c r="U46" s="3"/>
       <c r="V46" s="3"/>
@@ -7970,7 +7760,12 @@
       <c r="AF46" s="3"/>
     </row>
     <row r="47" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="4"/>
+      <c r="A47">
+        <v>31</v>
+      </c>
+      <c r="B47" s="4">
+        <v>-31</v>
+      </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -7983,11 +7778,19 @@
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
-      <c r="O47" s="3"/>
-      <c r="P47" s="3"/>
-      <c r="Q47" s="3"/>
-      <c r="R47" s="7"/>
-      <c r="S47" s="3"/>
+      <c r="O47" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="P47" s="3">
+        <v>355</v>
+      </c>
+      <c r="Q47" s="12">
+        <v>4.5000000000000003E-5</v>
+      </c>
+      <c r="R47" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="S47" s="8"/>
       <c r="T47" s="3"/>
       <c r="U47" s="3"/>
       <c r="V47" s="3"/>
@@ -8004,54 +7807,38 @@
     </row>
     <row r="48" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>24</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>133</v>
+        <v>32</v>
+      </c>
+      <c r="B48" s="4">
+        <v>-32</v>
       </c>
       <c r="C48" s="9">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="D48" s="3"/>
-      <c r="E48" s="3">
-        <v>2E-3</v>
-      </c>
-      <c r="F48" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="G48" s="9">
-        <v>0.47</v>
-      </c>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
-      <c r="K48" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="L48" s="3">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="M48" s="9">
-        <v>412</v>
-      </c>
-      <c r="N48" s="9">
-        <v>1.7999999999999999E-2</v>
-      </c>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
       <c r="O48" s="3" t="s">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="P48" s="3">
         <v>355</v>
       </c>
       <c r="Q48" s="12">
-        <v>5.4500000000000003E-5</v>
+        <v>4.3000000000000002E-5</v>
       </c>
       <c r="R48" s="7">
-        <v>0.11</v>
-      </c>
-      <c r="S48" s="8">
-        <v>7.0000000000000007E-2</v>
-      </c>
+        <v>0.09</v>
+      </c>
+      <c r="S48" s="8"/>
       <c r="T48" s="3"/>
       <c r="U48" s="3"/>
       <c r="V48" s="3"/>
@@ -8068,10 +7855,10 @@
     </row>
     <row r="49" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>24</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>133</v>
+        <v>32</v>
+      </c>
+      <c r="B49" s="4">
+        <v>-32</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -8086,20 +7873,18 @@
       <c r="M49" s="3"/>
       <c r="N49" s="3"/>
       <c r="O49" s="3" t="s">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="P49" s="3">
         <v>355</v>
       </c>
       <c r="Q49" s="12">
-        <v>5.4500000000000003E-5</v>
+        <v>4.3000000000000002E-5</v>
       </c>
       <c r="R49" s="7">
-        <v>0.23</v>
-      </c>
-      <c r="S49" s="8">
-        <v>0.16</v>
-      </c>
+        <v>0.11</v>
+      </c>
+      <c r="S49" s="8"/>
       <c r="T49" s="3"/>
       <c r="U49" s="3"/>
       <c r="V49" s="3"/>
@@ -8115,8 +7900,15 @@
       <c r="AF49" s="3"/>
     </row>
     <row r="50" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="4"/>
-      <c r="C50" s="3"/>
+      <c r="A50">
+        <v>33</v>
+      </c>
+      <c r="B50" s="4">
+        <v>-33</v>
+      </c>
+      <c r="C50" s="9">
+        <v>351</v>
+      </c>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -8128,11 +7920,19 @@
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
       <c r="N50" s="3"/>
-      <c r="O50" s="3"/>
-      <c r="P50" s="3"/>
-      <c r="Q50" s="3"/>
-      <c r="R50" s="13"/>
-      <c r="S50" s="3"/>
+      <c r="O50" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="P50" s="3">
+        <v>355</v>
+      </c>
+      <c r="Q50" s="12">
+        <v>4.8399999999999997E-5</v>
+      </c>
+      <c r="R50" s="7">
+        <v>0.04</v>
+      </c>
+      <c r="S50" s="8"/>
       <c r="T50" s="3"/>
       <c r="U50" s="3"/>
       <c r="V50" s="3"/>
@@ -8147,56 +7947,38 @@
       <c r="AE50" s="3"/>
       <c r="AF50" s="3"/>
     </row>
-    <row r="51" spans="1:32" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>25</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C51" s="9">
-        <v>342</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="B51" s="4">
+        <v>-33</v>
+      </c>
+      <c r="C51" s="3"/>
       <c r="D51" s="3"/>
-      <c r="E51" s="3">
-        <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="F51" s="9">
-        <v>351</v>
-      </c>
-      <c r="G51" s="9">
-        <v>1.5</v>
-      </c>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
-      <c r="K51" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="L51" s="9">
-        <v>0.7</v>
-      </c>
-      <c r="M51" s="9">
-        <v>414</v>
-      </c>
-      <c r="N51" s="9">
-        <v>0.49</v>
-      </c>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
       <c r="O51" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="P51" s="9" t="s">
-        <v>129</v>
+        <v>77</v>
+      </c>
+      <c r="P51" s="3">
+        <v>355</v>
       </c>
       <c r="Q51" s="12">
-        <v>4.5099999999999998E-5</v>
+        <v>4.8399999999999997E-5</v>
       </c>
       <c r="R51" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="S51" s="8" t="s">
-        <v>138</v>
-      </c>
+        <v>0.08</v>
+      </c>
+      <c r="S51" s="8"/>
       <c r="T51" s="3"/>
       <c r="U51" s="3"/>
       <c r="V51" s="3"/>
@@ -8211,40 +7993,52 @@
       <c r="AE51" s="3"/>
       <c r="AF51" s="3"/>
     </row>
-    <row r="52" spans="1:32" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>25</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C52" s="3"/>
+        <v>34</v>
+      </c>
+      <c r="B52" s="4">
+        <v>-34</v>
+      </c>
+      <c r="C52" s="9">
+        <v>349</v>
+      </c>
       <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
+      <c r="E52" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>51</v>
+      </c>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
-      <c r="K52" s="3"/>
-      <c r="L52" s="3"/>
-      <c r="M52" s="3"/>
+      <c r="K52" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L52" s="9">
+        <v>0.96</v>
+      </c>
+      <c r="M52" s="9">
+        <v>424</v>
+      </c>
       <c r="N52" s="3"/>
       <c r="O52" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="P52" s="9" t="s">
-        <v>129</v>
+        <v>78</v>
+      </c>
+      <c r="P52" s="3">
+        <v>355</v>
       </c>
       <c r="Q52" s="12">
-        <v>4.5099999999999998E-5</v>
+        <v>5.0599999999999997E-5</v>
       </c>
       <c r="R52" s="7">
-        <v>0.45</v>
-      </c>
-      <c r="S52" s="8" t="s">
-        <v>140</v>
-      </c>
+        <v>0.06</v>
+      </c>
+      <c r="S52" s="8"/>
       <c r="T52" s="3"/>
       <c r="U52" s="3"/>
       <c r="V52" s="3"/>
@@ -8260,7 +8054,12 @@
       <c r="AF52" s="3"/>
     </row>
     <row r="53" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="4"/>
+      <c r="A53">
+        <v>34</v>
+      </c>
+      <c r="B53" s="4">
+        <v>-34</v>
+      </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
@@ -8273,11 +8072,19 @@
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
-      <c r="O53" s="3"/>
-      <c r="P53" s="3"/>
-      <c r="Q53" s="3"/>
-      <c r="R53" s="13"/>
-      <c r="S53" s="3"/>
+      <c r="O53" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="P53" s="3">
+        <v>355</v>
+      </c>
+      <c r="Q53" s="12">
+        <v>5.0599999999999997E-5</v>
+      </c>
+      <c r="R53" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="S53" s="8"/>
       <c r="T53" s="3"/>
       <c r="U53" s="3"/>
       <c r="V53" s="3"/>
@@ -8292,58 +8099,52 @@
       <c r="AE53" s="3"/>
       <c r="AF53" s="3"/>
     </row>
-    <row r="54" spans="1:32" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>26</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>141</v>
+        <v>35</v>
+      </c>
+      <c r="B54" s="4">
+        <v>-35</v>
       </c>
       <c r="C54" s="9">
-        <v>350</v>
-      </c>
-      <c r="D54" s="3">
-        <v>8500</v>
-      </c>
-      <c r="E54" s="3">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="F54" s="9">
-        <v>361</v>
-      </c>
-      <c r="G54" s="9">
-        <v>0.98</v>
+        <v>343</v>
+      </c>
+      <c r="D54" s="3"/>
+      <c r="E54" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G54" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
       <c r="K54" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="L54" s="3">
+        <v>61</v>
+      </c>
+      <c r="L54" s="9">
         <v>0.71</v>
       </c>
       <c r="M54" s="9">
-        <v>414</v>
-      </c>
-      <c r="N54" s="9">
-        <v>0.28000000000000003</v>
-      </c>
+        <v>420</v>
+      </c>
+      <c r="N54" s="3"/>
       <c r="O54" s="3" t="s">
-        <v>142</v>
+        <v>78</v>
       </c>
       <c r="P54" s="3">
         <v>355</v>
       </c>
       <c r="Q54" s="12">
-        <v>5.1799999999999999E-5</v>
-      </c>
-      <c r="R54" s="24">
-        <v>0.34</v>
-      </c>
-      <c r="S54" s="8" t="s">
-        <v>143</v>
-      </c>
+        <v>5.2899999999999998E-5</v>
+      </c>
+      <c r="R54" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="S54" s="8"/>
       <c r="T54" s="3"/>
       <c r="U54" s="3"/>
       <c r="V54" s="3"/>
@@ -8358,12 +8159,12 @@
       <c r="AE54" s="3"/>
       <c r="AF54" s="3"/>
     </row>
-    <row r="55" spans="1:32" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>26</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>141</v>
+        <v>35</v>
+      </c>
+      <c r="B55" s="4">
+        <v>-35</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
@@ -8378,20 +8179,18 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3" t="s">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="P55" s="3">
         <v>355</v>
       </c>
       <c r="Q55" s="12">
-        <v>5.1799999999999999E-5</v>
+        <v>5.2899999999999998E-5</v>
       </c>
       <c r="R55" s="7">
-        <v>0.37</v>
-      </c>
-      <c r="S55" s="8" t="s">
-        <v>145</v>
-      </c>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="S55" s="8"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
@@ -8407,7 +8206,7 @@
       <c r="AF55" s="3"/>
     </row>
     <row r="56" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="4"/>
+      <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
@@ -8423,7 +8222,7 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-      <c r="R56" s="13"/>
+      <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
@@ -8440,15 +8239,8 @@
       <c r="AF56" s="3"/>
     </row>
     <row r="57" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57">
-        <v>27</v>
-      </c>
-      <c r="B57" s="4">
-        <v>-27</v>
-      </c>
-      <c r="C57" s="9">
-        <v>343</v>
-      </c>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -8460,25 +8252,13 @@
       <c r="L57" s="3"/>
       <c r="M57" s="3"/>
       <c r="N57" s="3"/>
-      <c r="O57" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="P57" s="3">
-        <v>355</v>
-      </c>
-      <c r="Q57" s="12">
-        <v>3.6100000000000003E-5</v>
-      </c>
-      <c r="R57" s="24">
-        <v>0.41</v>
-      </c>
-      <c r="S57" s="8">
-        <v>0.18</v>
-      </c>
+      <c r="O57" s="3"/>
+      <c r="P57" s="3"/>
+      <c r="Q57" s="3"/>
+      <c r="R57" s="3"/>
+      <c r="S57" s="3"/>
       <c r="T57" s="3"/>
-      <c r="U57" s="3" t="s">
-        <v>147</v>
-      </c>
+      <c r="U57" s="3"/>
       <c r="V57" s="3"/>
       <c r="W57" s="3"/>
       <c r="X57" s="3"/>
@@ -8492,12 +8272,7 @@
       <c r="AF57" s="3"/>
     </row>
     <row r="58" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58">
-        <v>27</v>
-      </c>
-      <c r="B58" s="4">
-        <v>-27</v>
-      </c>
+      <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
@@ -8510,25 +8285,13 @@
       <c r="L58" s="3"/>
       <c r="M58" s="3"/>
       <c r="N58" s="3"/>
-      <c r="O58" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="P58" s="3">
-        <v>355</v>
-      </c>
-      <c r="Q58" s="12">
-        <v>3.6100000000000003E-5</v>
-      </c>
-      <c r="R58" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="S58" s="8">
-        <v>0.14000000000000001</v>
-      </c>
+      <c r="O58" s="3"/>
+      <c r="P58" s="3"/>
+      <c r="Q58" s="3"/>
+      <c r="R58" s="3"/>
+      <c r="S58" s="3"/>
       <c r="T58" s="3"/>
-      <c r="U58" s="3" t="s">
-        <v>147</v>
-      </c>
+      <c r="U58" s="3"/>
       <c r="V58" s="3"/>
       <c r="W58" s="3"/>
       <c r="X58" s="3"/>
@@ -8542,7 +8305,8 @@
       <c r="AF58" s="3"/>
     </row>
     <row r="59" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="4"/>
+      <c r="A59" s="24"/>
+      <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -8558,7 +8322,7 @@
       <c r="O59" s="3"/>
       <c r="P59" s="3"/>
       <c r="Q59" s="3"/>
-      <c r="R59" s="13"/>
+      <c r="R59" s="3"/>
       <c r="S59" s="3"/>
       <c r="T59" s="3"/>
       <c r="U59" s="3"/>
@@ -8575,15 +8339,8 @@
       <c r="AF59" s="3"/>
     </row>
     <row r="60" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60">
-        <v>28</v>
-      </c>
-      <c r="B60" s="4">
-        <v>-28</v>
-      </c>
-      <c r="C60" s="9">
-        <v>351</v>
-      </c>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
@@ -8595,25 +8352,13 @@
       <c r="L60" s="3"/>
       <c r="M60" s="3"/>
       <c r="N60" s="3"/>
-      <c r="O60" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="P60" s="3">
-        <v>355</v>
-      </c>
-      <c r="Q60" s="12">
-        <v>4.4799999999999998E-5</v>
-      </c>
-      <c r="R60" s="7">
-        <v>0.13</v>
-      </c>
-      <c r="S60" s="8">
-        <v>7.2999999999999995E-2</v>
-      </c>
+      <c r="O60" s="3"/>
+      <c r="P60" s="3"/>
+      <c r="Q60" s="3"/>
+      <c r="R60" s="3"/>
+      <c r="S60" s="3"/>
       <c r="T60" s="3"/>
-      <c r="U60" s="3" t="s">
-        <v>147</v>
-      </c>
+      <c r="U60" s="3"/>
       <c r="V60" s="3"/>
       <c r="W60" s="3"/>
       <c r="X60" s="3"/>
@@ -8627,12 +8372,7 @@
       <c r="AF60" s="3"/>
     </row>
     <row r="61" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61">
-        <v>28</v>
-      </c>
-      <c r="B61" s="4">
-        <v>-28</v>
-      </c>
+      <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -8645,25 +8385,13 @@
       <c r="L61" s="3"/>
       <c r="M61" s="3"/>
       <c r="N61" s="3"/>
-      <c r="O61" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="P61" s="3">
-        <v>355</v>
-      </c>
-      <c r="Q61" s="12">
-        <v>4.4799999999999998E-5</v>
-      </c>
-      <c r="R61" s="7">
-        <v>0.15</v>
-      </c>
-      <c r="S61" s="8">
-        <v>8.3000000000000004E-2</v>
-      </c>
+      <c r="O61" s="3"/>
+      <c r="P61" s="3"/>
+      <c r="Q61" s="3"/>
+      <c r="R61" s="3"/>
+      <c r="S61" s="3"/>
       <c r="T61" s="3"/>
-      <c r="U61" s="3" t="s">
-        <v>147</v>
-      </c>
+      <c r="U61" s="3"/>
       <c r="V61" s="3"/>
       <c r="W61" s="3"/>
       <c r="X61" s="3"/>
@@ -8677,7 +8405,7 @@
       <c r="AF61" s="3"/>
     </row>
     <row r="62" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="4"/>
+      <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
@@ -8693,7 +8421,7 @@
       <c r="O62" s="3"/>
       <c r="P62" s="3"/>
       <c r="Q62" s="3"/>
-      <c r="R62" s="13"/>
+      <c r="R62" s="3"/>
       <c r="S62" s="3"/>
       <c r="T62" s="3"/>
       <c r="U62" s="3"/>
@@ -8710,15 +8438,8 @@
       <c r="AF62" s="3"/>
     </row>
     <row r="63" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63">
-        <v>29</v>
-      </c>
-      <c r="B63" s="4">
-        <v>-29</v>
-      </c>
-      <c r="C63" s="9">
-        <v>362</v>
-      </c>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
@@ -8730,25 +8451,13 @@
       <c r="L63" s="3"/>
       <c r="M63" s="3"/>
       <c r="N63" s="3"/>
-      <c r="O63" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="P63" s="3">
-        <v>355</v>
-      </c>
-      <c r="Q63" s="12">
-        <v>7.6000000000000004E-5</v>
-      </c>
-      <c r="R63" s="7">
-        <v>0.09</v>
-      </c>
-      <c r="S63" s="8">
-        <v>0.08</v>
-      </c>
+      <c r="O63" s="3"/>
+      <c r="P63" s="3"/>
+      <c r="Q63" s="3"/>
+      <c r="R63" s="3"/>
+      <c r="S63" s="3"/>
       <c r="T63" s="3"/>
-      <c r="U63" s="15" t="s">
-        <v>152</v>
-      </c>
+      <c r="U63" s="3"/>
       <c r="V63" s="3"/>
       <c r="W63" s="3"/>
       <c r="X63" s="3"/>
@@ -8762,12 +8471,7 @@
       <c r="AF63" s="3"/>
     </row>
     <row r="64" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64">
-        <v>29</v>
-      </c>
-      <c r="B64" s="4">
-        <v>-29</v>
-      </c>
+      <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
@@ -8780,27 +8484,17 @@
       <c r="L64" s="3"/>
       <c r="M64" s="3"/>
       <c r="N64" s="3"/>
-      <c r="O64" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="P64" s="3">
-        <v>355</v>
-      </c>
-      <c r="Q64" s="12">
-        <v>7.6000000000000004E-5</v>
-      </c>
-      <c r="R64" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="S64" s="8">
-        <v>0.18</v>
-      </c>
+      <c r="O64" s="3"/>
+      <c r="P64" s="3"/>
+      <c r="Q64" s="3"/>
+      <c r="R64" s="3"/>
+      <c r="S64" s="3"/>
       <c r="T64" s="3"/>
-      <c r="U64" s="11"/>
-      <c r="V64" s="11"/>
-      <c r="W64" s="11"/>
-      <c r="X64" s="11"/>
-      <c r="Y64" s="11"/>
+      <c r="U64" s="3"/>
+      <c r="V64" s="3"/>
+      <c r="W64" s="3"/>
+      <c r="X64" s="3"/>
+      <c r="Y64" s="3"/>
       <c r="Z64" s="3"/>
       <c r="AA64" s="3"/>
       <c r="AB64" s="3"/>
@@ -8809,8 +8503,8 @@
       <c r="AE64" s="3"/>
       <c r="AF64" s="3"/>
     </row>
-    <row r="65" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="4"/>
+    <row r="65" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
@@ -8826,7 +8520,7 @@
       <c r="O65" s="3"/>
       <c r="P65" s="3"/>
       <c r="Q65" s="3"/>
-      <c r="R65" s="13"/>
+      <c r="R65" s="3"/>
       <c r="S65" s="3"/>
       <c r="T65" s="3"/>
       <c r="U65" s="3"/>
@@ -8842,16 +8536,9 @@
       <c r="AE65" s="3"/>
       <c r="AF65" s="3"/>
     </row>
-    <row r="66" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66">
-        <v>30</v>
-      </c>
-      <c r="B66" s="4">
-        <v>-30</v>
-      </c>
-      <c r="C66" s="9">
-        <v>357</v>
-      </c>
+    <row r="66" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
@@ -8863,25 +8550,13 @@
       <c r="L66" s="3"/>
       <c r="M66" s="3"/>
       <c r="N66" s="3"/>
-      <c r="O66" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="P66" s="3">
-        <v>355</v>
-      </c>
-      <c r="Q66" s="12">
-        <v>4.4299999999999999E-5</v>
-      </c>
-      <c r="R66" s="7">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="S66" s="8">
-        <v>3.5999999999999997E-2</v>
-      </c>
+      <c r="O66" s="3"/>
+      <c r="P66" s="3"/>
+      <c r="Q66" s="3"/>
+      <c r="R66" s="3"/>
+      <c r="S66" s="3"/>
       <c r="T66" s="3"/>
-      <c r="U66" s="3" t="s">
-        <v>155</v>
-      </c>
+      <c r="U66" s="3"/>
       <c r="V66" s="3"/>
       <c r="W66" s="3"/>
       <c r="X66" s="3"/>
@@ -8894,13 +8569,8 @@
       <c r="AE66" s="3"/>
       <c r="AF66" s="3"/>
     </row>
-    <row r="67" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67">
-        <v>30</v>
-      </c>
-      <c r="B67" s="4">
-        <v>-30</v>
-      </c>
+    <row r="67" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="3"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
@@ -8913,25 +8583,13 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-      <c r="O67" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="P67" s="3">
-        <v>355</v>
-      </c>
-      <c r="Q67" s="12">
-        <v>4.4299999999999999E-5</v>
-      </c>
-      <c r="R67" s="7">
-        <v>0.11</v>
-      </c>
-      <c r="S67" s="8">
-        <v>5.8000000000000003E-2</v>
-      </c>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-      <c r="U67" s="3" t="s">
-        <v>155</v>
-      </c>
+      <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
@@ -8944,8 +8602,8 @@
       <c r="AE67" s="3"/>
       <c r="AF67" s="3"/>
     </row>
-    <row r="68" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="4"/>
+    <row r="68" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="3"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
@@ -8961,7 +8619,7 @@
       <c r="O68" s="3"/>
       <c r="P68" s="3"/>
       <c r="Q68" s="3"/>
-      <c r="R68" s="13"/>
+      <c r="R68" s="3"/>
       <c r="S68" s="3"/>
       <c r="T68" s="3"/>
       <c r="U68" s="3"/>
@@ -8977,16 +8635,9 @@
       <c r="AE68" s="3"/>
       <c r="AF68" s="3"/>
     </row>
-    <row r="69" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69">
-        <v>31</v>
-      </c>
-      <c r="B69" s="4">
-        <v>-31</v>
-      </c>
-      <c r="C69" s="9">
-        <v>360</v>
-      </c>
+    <row r="69" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
@@ -8998,25 +8649,13 @@
       <c r="L69" s="3"/>
       <c r="M69" s="3"/>
       <c r="N69" s="3"/>
-      <c r="O69" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="P69" s="3">
-        <v>355</v>
-      </c>
-      <c r="Q69" s="12">
-        <v>4.5000000000000003E-5</v>
-      </c>
-      <c r="R69" s="7">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="S69" s="8">
-        <v>4.1000000000000002E-2</v>
-      </c>
+      <c r="O69" s="3"/>
+      <c r="P69" s="3"/>
+      <c r="Q69" s="3"/>
+      <c r="R69" s="3"/>
+      <c r="S69" s="3"/>
       <c r="T69" s="3"/>
-      <c r="U69" s="3" t="s">
-        <v>155</v>
-      </c>
+      <c r="U69" s="3"/>
       <c r="V69" s="3"/>
       <c r="W69" s="3"/>
       <c r="X69" s="3"/>
@@ -9029,13 +8668,8 @@
       <c r="AE69" s="3"/>
       <c r="AF69" s="3"/>
     </row>
-    <row r="70" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70">
-        <v>31</v>
-      </c>
-      <c r="B70" s="4">
-        <v>-31</v>
-      </c>
+    <row r="70" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="3"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
@@ -9048,25 +8682,13 @@
       <c r="L70" s="3"/>
       <c r="M70" s="3"/>
       <c r="N70" s="3"/>
-      <c r="O70" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="P70" s="3">
-        <v>355</v>
-      </c>
-      <c r="Q70" s="12">
-        <v>4.5000000000000003E-5</v>
-      </c>
-      <c r="R70" s="7">
-        <v>0.11</v>
-      </c>
-      <c r="S70" s="8">
-        <v>6.2E-2</v>
-      </c>
+      <c r="O70" s="3"/>
+      <c r="P70" s="3"/>
+      <c r="Q70" s="3"/>
+      <c r="R70" s="3"/>
+      <c r="S70" s="3"/>
       <c r="T70" s="3"/>
-      <c r="U70" s="3" t="s">
-        <v>155</v>
-      </c>
+      <c r="U70" s="3"/>
       <c r="V70" s="3"/>
       <c r="W70" s="3"/>
       <c r="X70" s="3"/>
@@ -9079,8 +8701,8 @@
       <c r="AE70" s="3"/>
       <c r="AF70" s="3"/>
     </row>
-    <row r="71" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="4"/>
+    <row r="71" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="3"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
@@ -9096,7 +8718,7 @@
       <c r="O71" s="3"/>
       <c r="P71" s="3"/>
       <c r="Q71" s="3"/>
-      <c r="R71" s="13"/>
+      <c r="R71" s="3"/>
       <c r="S71" s="3"/>
       <c r="T71" s="3"/>
       <c r="U71" s="3"/>
@@ -9112,16 +8734,9 @@
       <c r="AE71" s="3"/>
       <c r="AF71" s="3"/>
     </row>
-    <row r="72" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72">
-        <v>32</v>
-      </c>
-      <c r="B72" s="4">
-        <v>-32</v>
-      </c>
-      <c r="C72" s="9">
-        <v>363</v>
-      </c>
+    <row r="72" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
@@ -9133,25 +8748,13 @@
       <c r="L72" s="3"/>
       <c r="M72" s="3"/>
       <c r="N72" s="3"/>
-      <c r="O72" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="P72" s="3">
-        <v>355</v>
-      </c>
-      <c r="Q72" s="12">
-        <v>4.3000000000000002E-5</v>
-      </c>
-      <c r="R72" s="7">
-        <v>0.09</v>
-      </c>
-      <c r="S72" s="8">
-        <v>0.05</v>
-      </c>
+      <c r="O72" s="3"/>
+      <c r="P72" s="3"/>
+      <c r="Q72" s="3"/>
+      <c r="R72" s="3"/>
+      <c r="S72" s="3"/>
       <c r="T72" s="3"/>
-      <c r="U72" s="3" t="s">
-        <v>155</v>
-      </c>
+      <c r="U72" s="3"/>
       <c r="V72" s="3"/>
       <c r="W72" s="3"/>
       <c r="X72" s="3"/>
@@ -9164,13 +8767,8 @@
       <c r="AE72" s="3"/>
       <c r="AF72" s="3"/>
     </row>
-    <row r="73" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73">
-        <v>32</v>
-      </c>
-      <c r="B73" s="4">
-        <v>-32</v>
-      </c>
+    <row r="73" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="3"/>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
@@ -9183,25 +8781,13 @@
       <c r="L73" s="3"/>
       <c r="M73" s="3"/>
       <c r="N73" s="3"/>
-      <c r="O73" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="P73" s="3">
-        <v>355</v>
-      </c>
-      <c r="Q73" s="12">
-        <v>4.3000000000000002E-5</v>
-      </c>
-      <c r="R73" s="7">
-        <v>0.11</v>
-      </c>
-      <c r="S73" s="8">
-        <v>5.8999999999999997E-2</v>
-      </c>
+      <c r="O73" s="3"/>
+      <c r="P73" s="3"/>
+      <c r="Q73" s="3"/>
+      <c r="R73" s="3"/>
+      <c r="S73" s="3"/>
       <c r="T73" s="3"/>
-      <c r="U73" s="3" t="s">
-        <v>155</v>
-      </c>
+      <c r="U73" s="3"/>
       <c r="V73" s="3"/>
       <c r="W73" s="3"/>
       <c r="X73" s="3"/>
@@ -9214,8 +8800,8 @@
       <c r="AE73" s="3"/>
       <c r="AF73" s="3"/>
     </row>
-    <row r="74" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="4"/>
+    <row r="74" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="3"/>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
@@ -9231,7 +8817,7 @@
       <c r="O74" s="3"/>
       <c r="P74" s="3"/>
       <c r="Q74" s="3"/>
-      <c r="R74" s="13"/>
+      <c r="R74" s="3"/>
       <c r="S74" s="3"/>
       <c r="T74" s="3"/>
       <c r="U74" s="3"/>
@@ -9247,16 +8833,9 @@
       <c r="AE74" s="3"/>
       <c r="AF74" s="3"/>
     </row>
-    <row r="75" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75">
-        <v>33</v>
-      </c>
-      <c r="B75" s="4">
-        <v>-33</v>
-      </c>
-      <c r="C75" s="9">
-        <v>351</v>
-      </c>
+    <row r="75" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
@@ -9268,25 +8847,13 @@
       <c r="L75" s="3"/>
       <c r="M75" s="3"/>
       <c r="N75" s="3"/>
-      <c r="O75" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="P75" s="3">
-        <v>355</v>
-      </c>
-      <c r="Q75" s="12">
-        <v>4.8399999999999997E-5</v>
-      </c>
-      <c r="R75" s="7">
-        <v>0.04</v>
-      </c>
-      <c r="S75" s="8">
-        <v>2.1999999999999999E-2</v>
-      </c>
+      <c r="O75" s="3"/>
+      <c r="P75" s="3"/>
+      <c r="Q75" s="3"/>
+      <c r="R75" s="3"/>
+      <c r="S75" s="3"/>
       <c r="T75" s="3"/>
-      <c r="U75" s="3" t="s">
-        <v>155</v>
-      </c>
+      <c r="U75" s="3"/>
       <c r="V75" s="3"/>
       <c r="W75" s="3"/>
       <c r="X75" s="3"/>
@@ -9299,13 +8866,8 @@
       <c r="AE75" s="3"/>
       <c r="AF75" s="3"/>
     </row>
-    <row r="76" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76">
-        <v>33</v>
-      </c>
-      <c r="B76" s="4">
-        <v>-33</v>
-      </c>
+    <row r="76" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="3"/>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
@@ -9318,25 +8880,13 @@
       <c r="L76" s="3"/>
       <c r="M76" s="3"/>
       <c r="N76" s="3"/>
-      <c r="O76" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="P76" s="3">
-        <v>355</v>
-      </c>
-      <c r="Q76" s="12">
-        <v>4.8399999999999997E-5</v>
-      </c>
-      <c r="R76" s="7">
-        <v>0.08</v>
-      </c>
-      <c r="S76" s="8">
-        <v>4.4999999999999998E-2</v>
-      </c>
+      <c r="O76" s="3"/>
+      <c r="P76" s="3"/>
+      <c r="Q76" s="3"/>
+      <c r="R76" s="3"/>
+      <c r="S76" s="3"/>
       <c r="T76" s="3"/>
-      <c r="U76" s="3" t="s">
-        <v>155</v>
-      </c>
+      <c r="U76" s="3"/>
       <c r="V76" s="3"/>
       <c r="W76" s="3"/>
       <c r="X76" s="3"/>
@@ -9349,8 +8899,8 @@
       <c r="AE76" s="3"/>
       <c r="AF76" s="3"/>
     </row>
-    <row r="77" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="4"/>
+    <row r="77" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="3"/>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
@@ -9366,7 +8916,7 @@
       <c r="O77" s="3"/>
       <c r="P77" s="3"/>
       <c r="Q77" s="3"/>
-      <c r="R77" s="13"/>
+      <c r="R77" s="3"/>
       <c r="S77" s="3"/>
       <c r="T77" s="3"/>
       <c r="U77" s="3"/>
@@ -9382,58 +8932,27 @@
       <c r="AE77" s="3"/>
       <c r="AF77" s="3"/>
     </row>
-    <row r="78" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78">
-        <v>34</v>
-      </c>
-      <c r="B78" s="4">
-        <v>-34</v>
-      </c>
-      <c r="C78" s="9">
-        <v>349</v>
-      </c>
+    <row r="78" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
       <c r="D78" s="3"/>
-      <c r="E78" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F78" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="G78" s="9" t="s">
-        <v>56</v>
-      </c>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
       <c r="J78" s="3"/>
-      <c r="K78" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="L78" s="9">
-        <v>0.96</v>
-      </c>
-      <c r="M78" s="9">
-        <v>424</v>
-      </c>
+      <c r="K78" s="3"/>
+      <c r="L78" s="3"/>
+      <c r="M78" s="3"/>
       <c r="N78" s="3"/>
-      <c r="O78" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="P78" s="3">
-        <v>355</v>
-      </c>
-      <c r="Q78" s="12">
-        <v>5.0599999999999997E-5</v>
-      </c>
-      <c r="R78" s="7">
-        <v>0.06</v>
-      </c>
-      <c r="S78" s="8">
-        <v>3.7999999999999999E-2</v>
-      </c>
+      <c r="O78" s="3"/>
+      <c r="P78" s="3"/>
+      <c r="Q78" s="3"/>
+      <c r="R78" s="3"/>
+      <c r="S78" s="3"/>
       <c r="T78" s="3"/>
-      <c r="U78" s="3" t="s">
-        <v>164</v>
-      </c>
+      <c r="U78" s="3"/>
       <c r="V78" s="3"/>
       <c r="W78" s="3"/>
       <c r="X78" s="3"/>
@@ -9446,13 +8965,8 @@
       <c r="AE78" s="3"/>
       <c r="AF78" s="3"/>
     </row>
-    <row r="79" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79">
-        <v>34</v>
-      </c>
-      <c r="B79" s="4">
-        <v>-34</v>
-      </c>
+    <row r="79" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="3"/>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
@@ -9465,25 +8979,13 @@
       <c r="L79" s="3"/>
       <c r="M79" s="3"/>
       <c r="N79" s="3"/>
-      <c r="O79" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="P79" s="3">
-        <v>355</v>
-      </c>
-      <c r="Q79" s="12">
-        <v>5.0599999999999997E-5</v>
-      </c>
-      <c r="R79" s="7">
-        <v>0.15</v>
-      </c>
-      <c r="S79" s="8">
-        <v>9.0999999999999998E-2</v>
-      </c>
+      <c r="O79" s="3"/>
+      <c r="P79" s="3"/>
+      <c r="Q79" s="3"/>
+      <c r="R79" s="3"/>
+      <c r="S79" s="3"/>
       <c r="T79" s="3"/>
-      <c r="U79" s="3" t="s">
-        <v>164</v>
-      </c>
+      <c r="U79" s="3"/>
       <c r="V79" s="3"/>
       <c r="W79" s="3"/>
       <c r="X79" s="3"/>
@@ -9496,8 +8998,8 @@
       <c r="AE79" s="3"/>
       <c r="AF79" s="3"/>
     </row>
-    <row r="80" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="4"/>
+    <row r="80" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="3"/>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
@@ -9513,7 +9015,7 @@
       <c r="O80" s="3"/>
       <c r="P80" s="3"/>
       <c r="Q80" s="3"/>
-      <c r="R80" s="13"/>
+      <c r="R80" s="3"/>
       <c r="S80" s="3"/>
       <c r="T80" s="3"/>
       <c r="U80" s="3"/>
@@ -9529,58 +9031,27 @@
       <c r="AE80" s="3"/>
       <c r="AF80" s="3"/>
     </row>
-    <row r="81" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81">
-        <v>35</v>
-      </c>
-      <c r="B81" s="4">
-        <v>-35</v>
-      </c>
-      <c r="C81" s="9">
-        <v>343</v>
-      </c>
+    <row r="81" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
       <c r="D81" s="3"/>
-      <c r="E81" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F81" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="G81" s="9" t="s">
-        <v>56</v>
-      </c>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
       <c r="H81" s="3"/>
       <c r="I81" s="3"/>
       <c r="J81" s="3"/>
-      <c r="K81" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="L81" s="9">
-        <v>0.71</v>
-      </c>
-      <c r="M81" s="9">
-        <v>420</v>
-      </c>
+      <c r="K81" s="3"/>
+      <c r="L81" s="3"/>
+      <c r="M81" s="3"/>
       <c r="N81" s="3"/>
-      <c r="O81" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="P81" s="3">
-        <v>355</v>
-      </c>
-      <c r="Q81" s="12">
-        <v>5.2899999999999998E-5</v>
-      </c>
-      <c r="R81" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="S81" s="8">
-        <v>3.3000000000000002E-2</v>
-      </c>
+      <c r="O81" s="3"/>
+      <c r="P81" s="3"/>
+      <c r="Q81" s="3"/>
+      <c r="R81" s="3"/>
+      <c r="S81" s="3"/>
       <c r="T81" s="3"/>
-      <c r="U81" s="3" t="s">
-        <v>164</v>
-      </c>
+      <c r="U81" s="3"/>
       <c r="V81" s="3"/>
       <c r="W81" s="3"/>
       <c r="X81" s="3"/>
@@ -9593,13 +9064,8 @@
       <c r="AE81" s="3"/>
       <c r="AF81" s="3"/>
     </row>
-    <row r="82" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82">
-        <v>35</v>
-      </c>
-      <c r="B82" s="4">
-        <v>-35</v>
-      </c>
+    <row r="82" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="3"/>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
@@ -9612,25 +9078,13 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-      <c r="O82" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="P82" s="3">
-        <v>355</v>
-      </c>
-      <c r="Q82" s="12">
-        <v>5.2899999999999998E-5</v>
-      </c>
-      <c r="R82" s="7">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="S82" s="8">
-        <v>9.1999999999999998E-2</v>
-      </c>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-      <c r="U82" s="3" t="s">
-        <v>164</v>
-      </c>
+      <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
@@ -9643,7 +9097,7 @@
       <c r="AE82" s="3"/>
       <c r="AF82" s="3"/>
     </row>
-    <row r="83" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
@@ -9676,7 +9130,7 @@
       <c r="AE83" s="3"/>
       <c r="AF83" s="3"/>
     </row>
-    <row r="84" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
@@ -9709,7 +9163,7 @@
       <c r="AE84" s="3"/>
       <c r="AF84" s="3"/>
     </row>
-    <row r="85" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
@@ -9742,8 +9196,7 @@
       <c r="AE85" s="3"/>
       <c r="AF85" s="3"/>
     </row>
-    <row r="86" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="28"/>
+    <row r="86" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
@@ -9776,7 +9229,7 @@
       <c r="AE86" s="3"/>
       <c r="AF86" s="3"/>
     </row>
-    <row r="87" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
@@ -9809,7 +9262,7 @@
       <c r="AE87" s="3"/>
       <c r="AF87" s="3"/>
     </row>
-    <row r="88" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
@@ -9842,7 +9295,7 @@
       <c r="AE88" s="3"/>
       <c r="AF88" s="3"/>
     </row>
-    <row r="89" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
@@ -9875,7 +9328,7 @@
       <c r="AE89" s="3"/>
       <c r="AF89" s="3"/>
     </row>
-    <row r="90" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
@@ -9908,7 +9361,7 @@
       <c r="AE90" s="3"/>
       <c r="AF90" s="3"/>
     </row>
-    <row r="91" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
@@ -9941,7 +9394,7 @@
       <c r="AE91" s="3"/>
       <c r="AF91" s="3"/>
     </row>
-    <row r="92" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
@@ -9974,7 +9427,7 @@
       <c r="AE92" s="3"/>
       <c r="AF92" s="3"/>
     </row>
-    <row r="93" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
@@ -10007,7 +9460,7 @@
       <c r="AE93" s="3"/>
       <c r="AF93" s="3"/>
     </row>
-    <row r="94" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
@@ -10040,7 +9493,7 @@
       <c r="AE94" s="3"/>
       <c r="AF94" s="3"/>
     </row>
-    <row r="95" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
@@ -10073,7 +9526,7 @@
       <c r="AE95" s="3"/>
       <c r="AF95" s="3"/>
     </row>
-    <row r="96" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
@@ -38915,901 +38368,7 @@
       <c r="AE969" s="3"/>
       <c r="AF969" s="3"/>
     </row>
-    <row r="970" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B970" s="3"/>
-      <c r="C970" s="3"/>
-      <c r="D970" s="3"/>
-      <c r="E970" s="3"/>
-      <c r="F970" s="3"/>
-      <c r="G970" s="3"/>
-      <c r="H970" s="3"/>
-      <c r="I970" s="3"/>
-      <c r="J970" s="3"/>
-      <c r="K970" s="3"/>
-      <c r="L970" s="3"/>
-      <c r="M970" s="3"/>
-      <c r="N970" s="3"/>
-      <c r="O970" s="3"/>
-      <c r="P970" s="3"/>
-      <c r="Q970" s="3"/>
-      <c r="R970" s="3"/>
-      <c r="S970" s="3"/>
-      <c r="T970" s="3"/>
-      <c r="U970" s="3"/>
-      <c r="V970" s="3"/>
-      <c r="W970" s="3"/>
-      <c r="X970" s="3"/>
-      <c r="Y970" s="3"/>
-      <c r="Z970" s="3"/>
-      <c r="AA970" s="3"/>
-      <c r="AB970" s="3"/>
-      <c r="AC970" s="3"/>
-      <c r="AD970" s="3"/>
-      <c r="AE970" s="3"/>
-      <c r="AF970" s="3"/>
-    </row>
-    <row r="971" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B971" s="3"/>
-      <c r="C971" s="3"/>
-      <c r="D971" s="3"/>
-      <c r="E971" s="3"/>
-      <c r="F971" s="3"/>
-      <c r="G971" s="3"/>
-      <c r="H971" s="3"/>
-      <c r="I971" s="3"/>
-      <c r="J971" s="3"/>
-      <c r="K971" s="3"/>
-      <c r="L971" s="3"/>
-      <c r="M971" s="3"/>
-      <c r="N971" s="3"/>
-      <c r="O971" s="3"/>
-      <c r="P971" s="3"/>
-      <c r="Q971" s="3"/>
-      <c r="R971" s="3"/>
-      <c r="S971" s="3"/>
-      <c r="T971" s="3"/>
-      <c r="U971" s="3"/>
-      <c r="V971" s="3"/>
-      <c r="W971" s="3"/>
-      <c r="X971" s="3"/>
-      <c r="Y971" s="3"/>
-      <c r="Z971" s="3"/>
-      <c r="AA971" s="3"/>
-      <c r="AB971" s="3"/>
-      <c r="AC971" s="3"/>
-      <c r="AD971" s="3"/>
-      <c r="AE971" s="3"/>
-      <c r="AF971" s="3"/>
-    </row>
-    <row r="972" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B972" s="3"/>
-      <c r="C972" s="3"/>
-      <c r="D972" s="3"/>
-      <c r="E972" s="3"/>
-      <c r="F972" s="3"/>
-      <c r="G972" s="3"/>
-      <c r="H972" s="3"/>
-      <c r="I972" s="3"/>
-      <c r="J972" s="3"/>
-      <c r="K972" s="3"/>
-      <c r="L972" s="3"/>
-      <c r="M972" s="3"/>
-      <c r="N972" s="3"/>
-      <c r="O972" s="3"/>
-      <c r="P972" s="3"/>
-      <c r="Q972" s="3"/>
-      <c r="R972" s="3"/>
-      <c r="S972" s="3"/>
-      <c r="T972" s="3"/>
-      <c r="U972" s="3"/>
-      <c r="V972" s="3"/>
-      <c r="W972" s="3"/>
-      <c r="X972" s="3"/>
-      <c r="Y972" s="3"/>
-      <c r="Z972" s="3"/>
-      <c r="AA972" s="3"/>
-      <c r="AB972" s="3"/>
-      <c r="AC972" s="3"/>
-      <c r="AD972" s="3"/>
-      <c r="AE972" s="3"/>
-      <c r="AF972" s="3"/>
-    </row>
-    <row r="973" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B973" s="3"/>
-      <c r="C973" s="3"/>
-      <c r="D973" s="3"/>
-      <c r="E973" s="3"/>
-      <c r="F973" s="3"/>
-      <c r="G973" s="3"/>
-      <c r="H973" s="3"/>
-      <c r="I973" s="3"/>
-      <c r="J973" s="3"/>
-      <c r="K973" s="3"/>
-      <c r="L973" s="3"/>
-      <c r="M973" s="3"/>
-      <c r="N973" s="3"/>
-      <c r="O973" s="3"/>
-      <c r="P973" s="3"/>
-      <c r="Q973" s="3"/>
-      <c r="R973" s="3"/>
-      <c r="S973" s="3"/>
-      <c r="T973" s="3"/>
-      <c r="U973" s="3"/>
-      <c r="V973" s="3"/>
-      <c r="W973" s="3"/>
-      <c r="X973" s="3"/>
-      <c r="Y973" s="3"/>
-      <c r="Z973" s="3"/>
-      <c r="AA973" s="3"/>
-      <c r="AB973" s="3"/>
-      <c r="AC973" s="3"/>
-      <c r="AD973" s="3"/>
-      <c r="AE973" s="3"/>
-      <c r="AF973" s="3"/>
-    </row>
-    <row r="974" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B974" s="3"/>
-      <c r="C974" s="3"/>
-      <c r="D974" s="3"/>
-      <c r="E974" s="3"/>
-      <c r="F974" s="3"/>
-      <c r="G974" s="3"/>
-      <c r="H974" s="3"/>
-      <c r="I974" s="3"/>
-      <c r="J974" s="3"/>
-      <c r="K974" s="3"/>
-      <c r="L974" s="3"/>
-      <c r="M974" s="3"/>
-      <c r="N974" s="3"/>
-      <c r="O974" s="3"/>
-      <c r="P974" s="3"/>
-      <c r="Q974" s="3"/>
-      <c r="R974" s="3"/>
-      <c r="S974" s="3"/>
-      <c r="T974" s="3"/>
-      <c r="U974" s="3"/>
-      <c r="V974" s="3"/>
-      <c r="W974" s="3"/>
-      <c r="X974" s="3"/>
-      <c r="Y974" s="3"/>
-      <c r="Z974" s="3"/>
-      <c r="AA974" s="3"/>
-      <c r="AB974" s="3"/>
-      <c r="AC974" s="3"/>
-      <c r="AD974" s="3"/>
-      <c r="AE974" s="3"/>
-      <c r="AF974" s="3"/>
-    </row>
-    <row r="975" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B975" s="3"/>
-      <c r="C975" s="3"/>
-      <c r="D975" s="3"/>
-      <c r="E975" s="3"/>
-      <c r="F975" s="3"/>
-      <c r="G975" s="3"/>
-      <c r="H975" s="3"/>
-      <c r="I975" s="3"/>
-      <c r="J975" s="3"/>
-      <c r="K975" s="3"/>
-      <c r="L975" s="3"/>
-      <c r="M975" s="3"/>
-      <c r="N975" s="3"/>
-      <c r="O975" s="3"/>
-      <c r="P975" s="3"/>
-      <c r="Q975" s="3"/>
-      <c r="R975" s="3"/>
-      <c r="S975" s="3"/>
-      <c r="T975" s="3"/>
-      <c r="U975" s="3"/>
-      <c r="V975" s="3"/>
-      <c r="W975" s="3"/>
-      <c r="X975" s="3"/>
-      <c r="Y975" s="3"/>
-      <c r="Z975" s="3"/>
-      <c r="AA975" s="3"/>
-      <c r="AB975" s="3"/>
-      <c r="AC975" s="3"/>
-      <c r="AD975" s="3"/>
-      <c r="AE975" s="3"/>
-      <c r="AF975" s="3"/>
-    </row>
-    <row r="976" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B976" s="3"/>
-      <c r="C976" s="3"/>
-      <c r="D976" s="3"/>
-      <c r="E976" s="3"/>
-      <c r="F976" s="3"/>
-      <c r="G976" s="3"/>
-      <c r="H976" s="3"/>
-      <c r="I976" s="3"/>
-      <c r="J976" s="3"/>
-      <c r="K976" s="3"/>
-      <c r="L976" s="3"/>
-      <c r="M976" s="3"/>
-      <c r="N976" s="3"/>
-      <c r="O976" s="3"/>
-      <c r="P976" s="3"/>
-      <c r="Q976" s="3"/>
-      <c r="R976" s="3"/>
-      <c r="S976" s="3"/>
-      <c r="T976" s="3"/>
-      <c r="U976" s="3"/>
-      <c r="V976" s="3"/>
-      <c r="W976" s="3"/>
-      <c r="X976" s="3"/>
-      <c r="Y976" s="3"/>
-      <c r="Z976" s="3"/>
-      <c r="AA976" s="3"/>
-      <c r="AB976" s="3"/>
-      <c r="AC976" s="3"/>
-      <c r="AD976" s="3"/>
-      <c r="AE976" s="3"/>
-      <c r="AF976" s="3"/>
-    </row>
-    <row r="977" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B977" s="3"/>
-      <c r="C977" s="3"/>
-      <c r="D977" s="3"/>
-      <c r="E977" s="3"/>
-      <c r="F977" s="3"/>
-      <c r="G977" s="3"/>
-      <c r="H977" s="3"/>
-      <c r="I977" s="3"/>
-      <c r="J977" s="3"/>
-      <c r="K977" s="3"/>
-      <c r="L977" s="3"/>
-      <c r="M977" s="3"/>
-      <c r="N977" s="3"/>
-      <c r="O977" s="3"/>
-      <c r="P977" s="3"/>
-      <c r="Q977" s="3"/>
-      <c r="R977" s="3"/>
-      <c r="S977" s="3"/>
-      <c r="T977" s="3"/>
-      <c r="U977" s="3"/>
-      <c r="V977" s="3"/>
-      <c r="W977" s="3"/>
-      <c r="X977" s="3"/>
-      <c r="Y977" s="3"/>
-      <c r="Z977" s="3"/>
-      <c r="AA977" s="3"/>
-      <c r="AB977" s="3"/>
-      <c r="AC977" s="3"/>
-      <c r="AD977" s="3"/>
-      <c r="AE977" s="3"/>
-      <c r="AF977" s="3"/>
-    </row>
-    <row r="978" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B978" s="3"/>
-      <c r="C978" s="3"/>
-      <c r="D978" s="3"/>
-      <c r="E978" s="3"/>
-      <c r="F978" s="3"/>
-      <c r="G978" s="3"/>
-      <c r="H978" s="3"/>
-      <c r="I978" s="3"/>
-      <c r="J978" s="3"/>
-      <c r="K978" s="3"/>
-      <c r="L978" s="3"/>
-      <c r="M978" s="3"/>
-      <c r="N978" s="3"/>
-      <c r="O978" s="3"/>
-      <c r="P978" s="3"/>
-      <c r="Q978" s="3"/>
-      <c r="R978" s="3"/>
-      <c r="S978" s="3"/>
-      <c r="T978" s="3"/>
-      <c r="U978" s="3"/>
-      <c r="V978" s="3"/>
-      <c r="W978" s="3"/>
-      <c r="X978" s="3"/>
-      <c r="Y978" s="3"/>
-      <c r="Z978" s="3"/>
-      <c r="AA978" s="3"/>
-      <c r="AB978" s="3"/>
-      <c r="AC978" s="3"/>
-      <c r="AD978" s="3"/>
-      <c r="AE978" s="3"/>
-      <c r="AF978" s="3"/>
-    </row>
-    <row r="979" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B979" s="3"/>
-      <c r="C979" s="3"/>
-      <c r="D979" s="3"/>
-      <c r="E979" s="3"/>
-      <c r="F979" s="3"/>
-      <c r="G979" s="3"/>
-      <c r="H979" s="3"/>
-      <c r="I979" s="3"/>
-      <c r="J979" s="3"/>
-      <c r="K979" s="3"/>
-      <c r="L979" s="3"/>
-      <c r="M979" s="3"/>
-      <c r="N979" s="3"/>
-      <c r="O979" s="3"/>
-      <c r="P979" s="3"/>
-      <c r="Q979" s="3"/>
-      <c r="R979" s="3"/>
-      <c r="S979" s="3"/>
-      <c r="T979" s="3"/>
-      <c r="U979" s="3"/>
-      <c r="V979" s="3"/>
-      <c r="W979" s="3"/>
-      <c r="X979" s="3"/>
-      <c r="Y979" s="3"/>
-      <c r="Z979" s="3"/>
-      <c r="AA979" s="3"/>
-      <c r="AB979" s="3"/>
-      <c r="AC979" s="3"/>
-      <c r="AD979" s="3"/>
-      <c r="AE979" s="3"/>
-      <c r="AF979" s="3"/>
-    </row>
-    <row r="980" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B980" s="3"/>
-      <c r="C980" s="3"/>
-      <c r="D980" s="3"/>
-      <c r="E980" s="3"/>
-      <c r="F980" s="3"/>
-      <c r="G980" s="3"/>
-      <c r="H980" s="3"/>
-      <c r="I980" s="3"/>
-      <c r="J980" s="3"/>
-      <c r="K980" s="3"/>
-      <c r="L980" s="3"/>
-      <c r="M980" s="3"/>
-      <c r="N980" s="3"/>
-      <c r="O980" s="3"/>
-      <c r="P980" s="3"/>
-      <c r="Q980" s="3"/>
-      <c r="R980" s="3"/>
-      <c r="S980" s="3"/>
-      <c r="T980" s="3"/>
-      <c r="U980" s="3"/>
-      <c r="V980" s="3"/>
-      <c r="W980" s="3"/>
-      <c r="X980" s="3"/>
-      <c r="Y980" s="3"/>
-      <c r="Z980" s="3"/>
-      <c r="AA980" s="3"/>
-      <c r="AB980" s="3"/>
-      <c r="AC980" s="3"/>
-      <c r="AD980" s="3"/>
-      <c r="AE980" s="3"/>
-      <c r="AF980" s="3"/>
-    </row>
-    <row r="981" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B981" s="3"/>
-      <c r="C981" s="3"/>
-      <c r="D981" s="3"/>
-      <c r="E981" s="3"/>
-      <c r="F981" s="3"/>
-      <c r="G981" s="3"/>
-      <c r="H981" s="3"/>
-      <c r="I981" s="3"/>
-      <c r="J981" s="3"/>
-      <c r="K981" s="3"/>
-      <c r="L981" s="3"/>
-      <c r="M981" s="3"/>
-      <c r="N981" s="3"/>
-      <c r="O981" s="3"/>
-      <c r="P981" s="3"/>
-      <c r="Q981" s="3"/>
-      <c r="R981" s="3"/>
-      <c r="S981" s="3"/>
-      <c r="T981" s="3"/>
-      <c r="U981" s="3"/>
-      <c r="V981" s="3"/>
-      <c r="W981" s="3"/>
-      <c r="X981" s="3"/>
-      <c r="Y981" s="3"/>
-      <c r="Z981" s="3"/>
-      <c r="AA981" s="3"/>
-      <c r="AB981" s="3"/>
-      <c r="AC981" s="3"/>
-      <c r="AD981" s="3"/>
-      <c r="AE981" s="3"/>
-      <c r="AF981" s="3"/>
-    </row>
-    <row r="982" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B982" s="3"/>
-      <c r="C982" s="3"/>
-      <c r="D982" s="3"/>
-      <c r="E982" s="3"/>
-      <c r="F982" s="3"/>
-      <c r="G982" s="3"/>
-      <c r="H982" s="3"/>
-      <c r="I982" s="3"/>
-      <c r="J982" s="3"/>
-      <c r="K982" s="3"/>
-      <c r="L982" s="3"/>
-      <c r="M982" s="3"/>
-      <c r="N982" s="3"/>
-      <c r="O982" s="3"/>
-      <c r="P982" s="3"/>
-      <c r="Q982" s="3"/>
-      <c r="R982" s="3"/>
-      <c r="S982" s="3"/>
-      <c r="T982" s="3"/>
-      <c r="U982" s="3"/>
-      <c r="V982" s="3"/>
-      <c r="W982" s="3"/>
-      <c r="X982" s="3"/>
-      <c r="Y982" s="3"/>
-      <c r="Z982" s="3"/>
-      <c r="AA982" s="3"/>
-      <c r="AB982" s="3"/>
-      <c r="AC982" s="3"/>
-      <c r="AD982" s="3"/>
-      <c r="AE982" s="3"/>
-      <c r="AF982" s="3"/>
-    </row>
-    <row r="983" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B983" s="3"/>
-      <c r="C983" s="3"/>
-      <c r="D983" s="3"/>
-      <c r="E983" s="3"/>
-      <c r="F983" s="3"/>
-      <c r="G983" s="3"/>
-      <c r="H983" s="3"/>
-      <c r="I983" s="3"/>
-      <c r="J983" s="3"/>
-      <c r="K983" s="3"/>
-      <c r="L983" s="3"/>
-      <c r="M983" s="3"/>
-      <c r="N983" s="3"/>
-      <c r="O983" s="3"/>
-      <c r="P983" s="3"/>
-      <c r="Q983" s="3"/>
-      <c r="R983" s="3"/>
-      <c r="S983" s="3"/>
-      <c r="T983" s="3"/>
-      <c r="U983" s="3"/>
-      <c r="V983" s="3"/>
-      <c r="W983" s="3"/>
-      <c r="X983" s="3"/>
-      <c r="Y983" s="3"/>
-      <c r="Z983" s="3"/>
-      <c r="AA983" s="3"/>
-      <c r="AB983" s="3"/>
-      <c r="AC983" s="3"/>
-      <c r="AD983" s="3"/>
-      <c r="AE983" s="3"/>
-      <c r="AF983" s="3"/>
-    </row>
-    <row r="984" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B984" s="3"/>
-      <c r="C984" s="3"/>
-      <c r="D984" s="3"/>
-      <c r="E984" s="3"/>
-      <c r="F984" s="3"/>
-      <c r="G984" s="3"/>
-      <c r="H984" s="3"/>
-      <c r="I984" s="3"/>
-      <c r="J984" s="3"/>
-      <c r="K984" s="3"/>
-      <c r="L984" s="3"/>
-      <c r="M984" s="3"/>
-      <c r="N984" s="3"/>
-      <c r="O984" s="3"/>
-      <c r="P984" s="3"/>
-      <c r="Q984" s="3"/>
-      <c r="R984" s="3"/>
-      <c r="S984" s="3"/>
-      <c r="T984" s="3"/>
-      <c r="U984" s="3"/>
-      <c r="V984" s="3"/>
-      <c r="W984" s="3"/>
-      <c r="X984" s="3"/>
-      <c r="Y984" s="3"/>
-      <c r="Z984" s="3"/>
-      <c r="AA984" s="3"/>
-      <c r="AB984" s="3"/>
-      <c r="AC984" s="3"/>
-      <c r="AD984" s="3"/>
-      <c r="AE984" s="3"/>
-      <c r="AF984" s="3"/>
-    </row>
-    <row r="985" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B985" s="3"/>
-      <c r="C985" s="3"/>
-      <c r="D985" s="3"/>
-      <c r="E985" s="3"/>
-      <c r="F985" s="3"/>
-      <c r="G985" s="3"/>
-      <c r="H985" s="3"/>
-      <c r="I985" s="3"/>
-      <c r="J985" s="3"/>
-      <c r="K985" s="3"/>
-      <c r="L985" s="3"/>
-      <c r="M985" s="3"/>
-      <c r="N985" s="3"/>
-      <c r="O985" s="3"/>
-      <c r="P985" s="3"/>
-      <c r="Q985" s="3"/>
-      <c r="R985" s="3"/>
-      <c r="S985" s="3"/>
-      <c r="T985" s="3"/>
-      <c r="U985" s="3"/>
-      <c r="V985" s="3"/>
-      <c r="W985" s="3"/>
-      <c r="X985" s="3"/>
-      <c r="Y985" s="3"/>
-      <c r="Z985" s="3"/>
-      <c r="AA985" s="3"/>
-      <c r="AB985" s="3"/>
-      <c r="AC985" s="3"/>
-      <c r="AD985" s="3"/>
-      <c r="AE985" s="3"/>
-      <c r="AF985" s="3"/>
-    </row>
-    <row r="986" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B986" s="3"/>
-      <c r="C986" s="3"/>
-      <c r="D986" s="3"/>
-      <c r="E986" s="3"/>
-      <c r="F986" s="3"/>
-      <c r="G986" s="3"/>
-      <c r="H986" s="3"/>
-      <c r="I986" s="3"/>
-      <c r="J986" s="3"/>
-      <c r="K986" s="3"/>
-      <c r="L986" s="3"/>
-      <c r="M986" s="3"/>
-      <c r="N986" s="3"/>
-      <c r="O986" s="3"/>
-      <c r="P986" s="3"/>
-      <c r="Q986" s="3"/>
-      <c r="R986" s="3"/>
-      <c r="S986" s="3"/>
-      <c r="T986" s="3"/>
-      <c r="U986" s="3"/>
-      <c r="V986" s="3"/>
-      <c r="W986" s="3"/>
-      <c r="X986" s="3"/>
-      <c r="Y986" s="3"/>
-      <c r="Z986" s="3"/>
-      <c r="AA986" s="3"/>
-      <c r="AB986" s="3"/>
-      <c r="AC986" s="3"/>
-      <c r="AD986" s="3"/>
-      <c r="AE986" s="3"/>
-      <c r="AF986" s="3"/>
-    </row>
-    <row r="987" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B987" s="3"/>
-      <c r="C987" s="3"/>
-      <c r="D987" s="3"/>
-      <c r="E987" s="3"/>
-      <c r="F987" s="3"/>
-      <c r="G987" s="3"/>
-      <c r="H987" s="3"/>
-      <c r="I987" s="3"/>
-      <c r="J987" s="3"/>
-      <c r="K987" s="3"/>
-      <c r="L987" s="3"/>
-      <c r="M987" s="3"/>
-      <c r="N987" s="3"/>
-      <c r="O987" s="3"/>
-      <c r="P987" s="3"/>
-      <c r="Q987" s="3"/>
-      <c r="R987" s="3"/>
-      <c r="S987" s="3"/>
-      <c r="T987" s="3"/>
-      <c r="U987" s="3"/>
-      <c r="V987" s="3"/>
-      <c r="W987" s="3"/>
-      <c r="X987" s="3"/>
-      <c r="Y987" s="3"/>
-      <c r="Z987" s="3"/>
-      <c r="AA987" s="3"/>
-      <c r="AB987" s="3"/>
-      <c r="AC987" s="3"/>
-      <c r="AD987" s="3"/>
-      <c r="AE987" s="3"/>
-      <c r="AF987" s="3"/>
-    </row>
-    <row r="988" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B988" s="3"/>
-      <c r="C988" s="3"/>
-      <c r="D988" s="3"/>
-      <c r="E988" s="3"/>
-      <c r="F988" s="3"/>
-      <c r="G988" s="3"/>
-      <c r="H988" s="3"/>
-      <c r="I988" s="3"/>
-      <c r="J988" s="3"/>
-      <c r="K988" s="3"/>
-      <c r="L988" s="3"/>
-      <c r="M988" s="3"/>
-      <c r="N988" s="3"/>
-      <c r="O988" s="3"/>
-      <c r="P988" s="3"/>
-      <c r="Q988" s="3"/>
-      <c r="R988" s="3"/>
-      <c r="S988" s="3"/>
-      <c r="T988" s="3"/>
-      <c r="U988" s="3"/>
-      <c r="V988" s="3"/>
-      <c r="W988" s="3"/>
-      <c r="X988" s="3"/>
-      <c r="Y988" s="3"/>
-      <c r="Z988" s="3"/>
-      <c r="AA988" s="3"/>
-      <c r="AB988" s="3"/>
-      <c r="AC988" s="3"/>
-      <c r="AD988" s="3"/>
-      <c r="AE988" s="3"/>
-      <c r="AF988" s="3"/>
-    </row>
-    <row r="989" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B989" s="3"/>
-      <c r="C989" s="3"/>
-      <c r="D989" s="3"/>
-      <c r="E989" s="3"/>
-      <c r="F989" s="3"/>
-      <c r="G989" s="3"/>
-      <c r="H989" s="3"/>
-      <c r="I989" s="3"/>
-      <c r="J989" s="3"/>
-      <c r="K989" s="3"/>
-      <c r="L989" s="3"/>
-      <c r="M989" s="3"/>
-      <c r="N989" s="3"/>
-      <c r="O989" s="3"/>
-      <c r="P989" s="3"/>
-      <c r="Q989" s="3"/>
-      <c r="R989" s="3"/>
-      <c r="S989" s="3"/>
-      <c r="T989" s="3"/>
-      <c r="U989" s="3"/>
-      <c r="V989" s="3"/>
-      <c r="W989" s="3"/>
-      <c r="X989" s="3"/>
-      <c r="Y989" s="3"/>
-      <c r="Z989" s="3"/>
-      <c r="AA989" s="3"/>
-      <c r="AB989" s="3"/>
-      <c r="AC989" s="3"/>
-      <c r="AD989" s="3"/>
-      <c r="AE989" s="3"/>
-      <c r="AF989" s="3"/>
-    </row>
-    <row r="990" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B990" s="3"/>
-      <c r="C990" s="3"/>
-      <c r="D990" s="3"/>
-      <c r="E990" s="3"/>
-      <c r="F990" s="3"/>
-      <c r="G990" s="3"/>
-      <c r="H990" s="3"/>
-      <c r="I990" s="3"/>
-      <c r="J990" s="3"/>
-      <c r="K990" s="3"/>
-      <c r="L990" s="3"/>
-      <c r="M990" s="3"/>
-      <c r="N990" s="3"/>
-      <c r="O990" s="3"/>
-      <c r="P990" s="3"/>
-      <c r="Q990" s="3"/>
-      <c r="R990" s="3"/>
-      <c r="S990" s="3"/>
-      <c r="T990" s="3"/>
-      <c r="U990" s="3"/>
-      <c r="V990" s="3"/>
-      <c r="W990" s="3"/>
-      <c r="X990" s="3"/>
-      <c r="Y990" s="3"/>
-      <c r="Z990" s="3"/>
-      <c r="AA990" s="3"/>
-      <c r="AB990" s="3"/>
-      <c r="AC990" s="3"/>
-      <c r="AD990" s="3"/>
-      <c r="AE990" s="3"/>
-      <c r="AF990" s="3"/>
-    </row>
-    <row r="991" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B991" s="3"/>
-      <c r="C991" s="3"/>
-      <c r="D991" s="3"/>
-      <c r="E991" s="3"/>
-      <c r="F991" s="3"/>
-      <c r="G991" s="3"/>
-      <c r="H991" s="3"/>
-      <c r="I991" s="3"/>
-      <c r="J991" s="3"/>
-      <c r="K991" s="3"/>
-      <c r="L991" s="3"/>
-      <c r="M991" s="3"/>
-      <c r="N991" s="3"/>
-      <c r="O991" s="3"/>
-      <c r="P991" s="3"/>
-      <c r="Q991" s="3"/>
-      <c r="R991" s="3"/>
-      <c r="S991" s="3"/>
-      <c r="T991" s="3"/>
-      <c r="U991" s="3"/>
-      <c r="V991" s="3"/>
-      <c r="W991" s="3"/>
-      <c r="X991" s="3"/>
-      <c r="Y991" s="3"/>
-      <c r="Z991" s="3"/>
-      <c r="AA991" s="3"/>
-      <c r="AB991" s="3"/>
-      <c r="AC991" s="3"/>
-      <c r="AD991" s="3"/>
-      <c r="AE991" s="3"/>
-      <c r="AF991" s="3"/>
-    </row>
-    <row r="992" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B992" s="3"/>
-      <c r="C992" s="3"/>
-      <c r="D992" s="3"/>
-      <c r="E992" s="3"/>
-      <c r="F992" s="3"/>
-      <c r="G992" s="3"/>
-      <c r="H992" s="3"/>
-      <c r="I992" s="3"/>
-      <c r="J992" s="3"/>
-      <c r="K992" s="3"/>
-      <c r="L992" s="3"/>
-      <c r="M992" s="3"/>
-      <c r="N992" s="3"/>
-      <c r="O992" s="3"/>
-      <c r="P992" s="3"/>
-      <c r="Q992" s="3"/>
-      <c r="R992" s="3"/>
-      <c r="S992" s="3"/>
-      <c r="T992" s="3"/>
-      <c r="U992" s="3"/>
-      <c r="V992" s="3"/>
-      <c r="W992" s="3"/>
-      <c r="X992" s="3"/>
-      <c r="Y992" s="3"/>
-      <c r="Z992" s="3"/>
-      <c r="AA992" s="3"/>
-      <c r="AB992" s="3"/>
-      <c r="AC992" s="3"/>
-      <c r="AD992" s="3"/>
-      <c r="AE992" s="3"/>
-      <c r="AF992" s="3"/>
-    </row>
-    <row r="993" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B993" s="3"/>
-      <c r="C993" s="3"/>
-      <c r="D993" s="3"/>
-      <c r="E993" s="3"/>
-      <c r="F993" s="3"/>
-      <c r="G993" s="3"/>
-      <c r="H993" s="3"/>
-      <c r="I993" s="3"/>
-      <c r="J993" s="3"/>
-      <c r="K993" s="3"/>
-      <c r="L993" s="3"/>
-      <c r="M993" s="3"/>
-      <c r="N993" s="3"/>
-      <c r="O993" s="3"/>
-      <c r="P993" s="3"/>
-      <c r="Q993" s="3"/>
-      <c r="R993" s="3"/>
-      <c r="S993" s="3"/>
-      <c r="T993" s="3"/>
-      <c r="U993" s="3"/>
-      <c r="V993" s="3"/>
-      <c r="W993" s="3"/>
-      <c r="X993" s="3"/>
-      <c r="Y993" s="3"/>
-      <c r="Z993" s="3"/>
-      <c r="AA993" s="3"/>
-      <c r="AB993" s="3"/>
-      <c r="AC993" s="3"/>
-      <c r="AD993" s="3"/>
-      <c r="AE993" s="3"/>
-      <c r="AF993" s="3"/>
-    </row>
-    <row r="994" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B994" s="3"/>
-      <c r="C994" s="3"/>
-      <c r="D994" s="3"/>
-      <c r="E994" s="3"/>
-      <c r="F994" s="3"/>
-      <c r="G994" s="3"/>
-      <c r="H994" s="3"/>
-      <c r="I994" s="3"/>
-      <c r="J994" s="3"/>
-      <c r="K994" s="3"/>
-      <c r="L994" s="3"/>
-      <c r="M994" s="3"/>
-      <c r="N994" s="3"/>
-      <c r="O994" s="3"/>
-      <c r="P994" s="3"/>
-      <c r="Q994" s="3"/>
-      <c r="R994" s="3"/>
-      <c r="S994" s="3"/>
-      <c r="T994" s="3"/>
-      <c r="U994" s="3"/>
-      <c r="V994" s="3"/>
-      <c r="W994" s="3"/>
-      <c r="X994" s="3"/>
-      <c r="Y994" s="3"/>
-      <c r="Z994" s="3"/>
-      <c r="AA994" s="3"/>
-      <c r="AB994" s="3"/>
-      <c r="AC994" s="3"/>
-      <c r="AD994" s="3"/>
-      <c r="AE994" s="3"/>
-      <c r="AF994" s="3"/>
-    </row>
-    <row r="995" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B995" s="3"/>
-      <c r="C995" s="3"/>
-      <c r="D995" s="3"/>
-      <c r="E995" s="3"/>
-      <c r="F995" s="3"/>
-      <c r="G995" s="3"/>
-      <c r="H995" s="3"/>
-      <c r="I995" s="3"/>
-      <c r="J995" s="3"/>
-      <c r="K995" s="3"/>
-      <c r="L995" s="3"/>
-      <c r="M995" s="3"/>
-      <c r="N995" s="3"/>
-      <c r="O995" s="3"/>
-      <c r="P995" s="3"/>
-      <c r="Q995" s="3"/>
-      <c r="R995" s="3"/>
-      <c r="S995" s="3"/>
-      <c r="T995" s="3"/>
-      <c r="U995" s="3"/>
-      <c r="V995" s="3"/>
-      <c r="W995" s="3"/>
-      <c r="X995" s="3"/>
-      <c r="Y995" s="3"/>
-      <c r="Z995" s="3"/>
-      <c r="AA995" s="3"/>
-      <c r="AB995" s="3"/>
-      <c r="AC995" s="3"/>
-      <c r="AD995" s="3"/>
-      <c r="AE995" s="3"/>
-      <c r="AF995" s="3"/>
-    </row>
-    <row r="996" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B996" s="3"/>
-      <c r="C996" s="3"/>
-      <c r="D996" s="3"/>
-      <c r="E996" s="3"/>
-      <c r="F996" s="3"/>
-      <c r="G996" s="3"/>
-      <c r="H996" s="3"/>
-      <c r="I996" s="3"/>
-      <c r="J996" s="3"/>
-      <c r="K996" s="3"/>
-      <c r="L996" s="3"/>
-      <c r="M996" s="3"/>
-      <c r="N996" s="3"/>
-      <c r="O996" s="3"/>
-      <c r="P996" s="3"/>
-      <c r="Q996" s="3"/>
-      <c r="R996" s="3"/>
-      <c r="S996" s="3"/>
-      <c r="T996" s="3"/>
-      <c r="U996" s="3"/>
-      <c r="V996" s="3"/>
-      <c r="W996" s="3"/>
-      <c r="X996" s="3"/>
-      <c r="Y996" s="3"/>
-      <c r="Z996" s="3"/>
-      <c r="AA996" s="3"/>
-      <c r="AB996" s="3"/>
-      <c r="AC996" s="3"/>
-      <c r="AD996" s="3"/>
-      <c r="AE996" s="3"/>
-      <c r="AF996" s="3"/>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="O1:S1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
